--- a/BackTest/2020-01-21 BackTest QTUM.xlsx
+++ b/BackTest/2020-01-21 BackTest QTUM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -649,7 +649,7 @@
         <v>12428.73266677001</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>12922.20176677001</v>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>12922.20176677001</v>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>12499.91656677001</v>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>11168.09866677001</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>11168.09866677001</v>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>11168.09866677001</v>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>11239.99866677001</v>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>13036.29986677</v>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>13011.29986677</v>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>14350.90622649001</v>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>12382.86662649001</v>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>12383.79292649</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>12168.08242649001</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>12719.80482649001</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>12721.80482649001</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>12471.80482649001</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>15252.50567173</v>
       </c>
       <c r="H66" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>15228.10217173</v>
       </c>
       <c r="H67" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>13675.27447173</v>
       </c>
       <c r="H68" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>14128.29237173</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>12868.98047173</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>12659.81207173</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>11659.81207173</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>11495.61187173</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>7519.843871730003</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>7271.123271730004</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>7758.503971730003</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>7879.503971730003</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>7879.503971730003</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>9572.541051800003</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>9602.737951800003</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>9099.743551800004</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>9196.937338910004</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>9689.697638910004</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>2195.657738910004</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>2287.701338910004</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>4570.989638910005</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>6355.786638910005</v>
       </c>
       <c r="H106" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>6355.786638910005</v>
       </c>
       <c r="H107" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>6355.786638910005</v>
       </c>
       <c r="H108" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>6355.786638910005</v>
       </c>
       <c r="H109" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>6355.786638910005</v>
       </c>
       <c r="H110" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>6355.786638910005</v>
       </c>
       <c r="H111" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>6355.786638910005</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>5950.957338910005</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>5950.957338910005</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>7807.033238910005</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>6466.958338910004</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>6466.958338910004</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>6554.258338910005</v>
       </c>
       <c r="H120" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>6767.164338910005</v>
       </c>
       <c r="H121" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>5448.165394050005</v>
       </c>
       <c r="H122" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>5049.602194050005</v>
       </c>
       <c r="H123" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>5976.932194050006</v>
       </c>
       <c r="H129" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>7500.333994050006</v>
       </c>
       <c r="H130" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-551.9611059499923</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-383.8592059499923</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-383.8592059499923</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>1773.953994050008</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>1875.183994050008</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>2240.740294050008</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>-10078.16986143999</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>-10108.96986143999</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>-10002.64556143999</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>-10002.64556143999</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-10412.58046143999</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-10443.85636143999</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>-10356.35146143999</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>-10328.97919866999</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>-10047.74599866999</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>-10047.74599866999</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-9513.581098669993</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-12473.39159866999</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-11909.23999866999</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-11927.98859866999</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>-19410.69105925999</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>-17812.69105925999</v>
       </c>
       <c r="H189" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>-16812.69105925999</v>
       </c>
       <c r="H190" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>-16486.59975925999</v>
       </c>
       <c r="H191" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>-16576.40985925999</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>-15591.19365925999</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>-15591.19365925999</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>-15891.19365925999</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>-15723.67985925999</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>-15823.67985925999</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>-13625.35405925999</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>-15625.35405925999</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>-15332.86335925999</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>-15761.16135925999</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>-21132.46805925999</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>-31059.81475925999</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>-36817.29025925999</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>-36817.29025925999</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>-35505.15015925999</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>-35505.15015925999</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>-35506.15015925999</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>-35506.15015925999</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>-35988.15015925999</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>-36792.66505925998</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>-37010.93705925998</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>-37010.93705925998</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>-40348.14595925998</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>-39897.40168794998</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>-40194.76938794998</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>-40184.95158794998</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>-44147.82288794998</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>-44147.82288794998</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>-44147.82288794998</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>-49837.25948794998</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>-49684.12888794998</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>-47084.12888794998</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>-49407.51658794998</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>-49498.48528794998</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -19195,10 +19195,14 @@
         <v>-258523.7834196999</v>
       </c>
       <c r="H570" t="n">
-        <v>0</v>
-      </c>
-      <c r="I570" t="inlineStr"/>
-      <c r="J570" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I570" t="n">
+        <v>2143</v>
+      </c>
+      <c r="J570" t="n">
+        <v>2143</v>
+      </c>
       <c r="K570" t="inlineStr"/>
       <c r="L570" t="n">
         <v>1</v>
@@ -19228,11 +19232,19 @@
         <v>-258401.8612196999</v>
       </c>
       <c r="H571" t="n">
-        <v>0</v>
-      </c>
-      <c r="I571" t="inlineStr"/>
-      <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I571" t="n">
+        <v>2145</v>
+      </c>
+      <c r="J571" t="n">
+        <v>2143</v>
+      </c>
+      <c r="K571" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -19261,11 +19273,19 @@
         <v>-255663.2608196999</v>
       </c>
       <c r="H572" t="n">
-        <v>0</v>
-      </c>
-      <c r="I572" t="inlineStr"/>
-      <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I572" t="n">
+        <v>2156</v>
+      </c>
+      <c r="J572" t="n">
+        <v>2143</v>
+      </c>
+      <c r="K572" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -19822,11 +19842,17 @@
         <v>-266214.0893196999</v>
       </c>
       <c r="H589" t="n">
-        <v>0</v>
-      </c>
-      <c r="I589" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I589" t="n">
+        <v>2139</v>
+      </c>
       <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr"/>
+      <c r="K589" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -19855,11 +19881,17 @@
         <v>-266214.0893196999</v>
       </c>
       <c r="H590" t="n">
-        <v>0</v>
-      </c>
-      <c r="I590" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I590" t="n">
+        <v>2139</v>
+      </c>
       <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr"/>
+      <c r="K590" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -19888,11 +19920,17 @@
         <v>-266974.2332196999</v>
       </c>
       <c r="H591" t="n">
-        <v>0</v>
-      </c>
-      <c r="I591" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I591" t="n">
+        <v>2139</v>
+      </c>
       <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr"/>
+      <c r="K591" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -19921,11 +19959,17 @@
         <v>-267684.6929196999</v>
       </c>
       <c r="H592" t="n">
-        <v>0</v>
-      </c>
-      <c r="I592" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I592" t="n">
+        <v>2134</v>
+      </c>
       <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr"/>
+      <c r="K592" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -19954,11 +19998,17 @@
         <v>-268445.4266196999</v>
       </c>
       <c r="H593" t="n">
-        <v>0</v>
-      </c>
-      <c r="I593" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I593" t="n">
+        <v>2130</v>
+      </c>
       <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr"/>
+      <c r="K593" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -19987,11 +20037,17 @@
         <v>-267472.4524196999</v>
       </c>
       <c r="H594" t="n">
-        <v>0</v>
-      </c>
-      <c r="I594" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I594" t="n">
+        <v>2128</v>
+      </c>
       <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr"/>
+      <c r="K594" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -20020,11 +20076,17 @@
         <v>-271054.1543196999</v>
       </c>
       <c r="H595" t="n">
-        <v>0</v>
-      </c>
-      <c r="I595" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I595" t="n">
+        <v>2130</v>
+      </c>
       <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr"/>
+      <c r="K595" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -20053,11 +20115,17 @@
         <v>-271054.1543196999</v>
       </c>
       <c r="H596" t="n">
-        <v>0</v>
-      </c>
-      <c r="I596" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I596" t="n">
+        <v>2125</v>
+      </c>
       <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr"/>
+      <c r="K596" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -20086,11 +20154,17 @@
         <v>-267673.1543196999</v>
       </c>
       <c r="H597" t="n">
-        <v>0</v>
-      </c>
-      <c r="I597" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I597" t="n">
+        <v>2125</v>
+      </c>
       <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr"/>
+      <c r="K597" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -20119,11 +20193,17 @@
         <v>-267939.0916196998</v>
       </c>
       <c r="H598" t="n">
-        <v>0</v>
-      </c>
-      <c r="I598" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I598" t="n">
+        <v>2139</v>
+      </c>
       <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr"/>
+      <c r="K598" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -20152,11 +20232,17 @@
         <v>-267225.4773196998</v>
       </c>
       <c r="H599" t="n">
-        <v>0</v>
-      </c>
-      <c r="I599" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I599" t="n">
+        <v>2130</v>
+      </c>
       <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr"/>
+      <c r="K599" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -20185,11 +20271,17 @@
         <v>-266970.0642196998</v>
       </c>
       <c r="H600" t="n">
-        <v>0</v>
-      </c>
-      <c r="I600" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I600" t="n">
+        <v>2139</v>
+      </c>
       <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr"/>
+      <c r="K600" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -20218,11 +20310,17 @@
         <v>-271458.8941196998</v>
       </c>
       <c r="H601" t="n">
-        <v>0</v>
-      </c>
-      <c r="I601" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I601" t="n">
+        <v>2148</v>
+      </c>
       <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr"/>
+      <c r="K601" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -20251,11 +20349,17 @@
         <v>-271266.4355196998</v>
       </c>
       <c r="H602" t="n">
-        <v>0</v>
-      </c>
-      <c r="I602" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I602" t="n">
+        <v>2135</v>
+      </c>
       <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr"/>
+      <c r="K602" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -20284,11 +20388,17 @@
         <v>-271266.4355196998</v>
       </c>
       <c r="H603" t="n">
-        <v>0</v>
-      </c>
-      <c r="I603" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I603" t="n">
+        <v>2141</v>
+      </c>
       <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr"/>
+      <c r="K603" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -20317,11 +20427,17 @@
         <v>-271848.2109196998</v>
       </c>
       <c r="H604" t="n">
-        <v>0</v>
-      </c>
-      <c r="I604" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I604" t="n">
+        <v>2141</v>
+      </c>
       <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr"/>
+      <c r="K604" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -20350,11 +20466,17 @@
         <v>-271769.2559196998</v>
       </c>
       <c r="H605" t="n">
-        <v>0</v>
-      </c>
-      <c r="I605" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I605" t="n">
+        <v>2134</v>
+      </c>
       <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr"/>
+      <c r="K605" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -20383,11 +20505,17 @@
         <v>-271487.5244196998</v>
       </c>
       <c r="H606" t="n">
-        <v>0</v>
-      </c>
-      <c r="I606" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I606" t="n">
+        <v>2140</v>
+      </c>
       <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr"/>
+      <c r="K606" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -20420,7 +20548,11 @@
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr"/>
+      <c r="K607" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -20453,7 +20585,11 @@
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr"/>
+      <c r="K608" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -20486,7 +20622,11 @@
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr"/>
+      <c r="K609" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -20519,7 +20659,11 @@
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr"/>
+      <c r="K610" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -20552,7 +20696,11 @@
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr"/>
+      <c r="K611" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -20585,7 +20733,11 @@
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr"/>
+      <c r="K612" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -20618,7 +20770,11 @@
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr"/>
+      <c r="K613" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -20651,7 +20807,11 @@
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr"/>
+      <c r="K614" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -20684,7 +20844,11 @@
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr"/>
+      <c r="K615" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -20717,7 +20881,11 @@
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr"/>
+      <c r="K616" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -20750,7 +20918,11 @@
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr"/>
+      <c r="K617" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -20783,7 +20955,11 @@
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr"/>
+      <c r="K618" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -20816,7 +20992,11 @@
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr"/>
+      <c r="K619" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -20849,7 +21029,11 @@
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr"/>
+      <c r="K620" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -20878,11 +21062,17 @@
         <v>-276460.0084196998</v>
       </c>
       <c r="H621" t="n">
-        <v>0</v>
-      </c>
-      <c r="I621" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I621" t="n">
+        <v>2131</v>
+      </c>
       <c r="J621" t="inlineStr"/>
-      <c r="K621" t="inlineStr"/>
+      <c r="K621" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -20911,11 +21101,17 @@
         <v>-275886.3587196998</v>
       </c>
       <c r="H622" t="n">
-        <v>0</v>
-      </c>
-      <c r="I622" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I622" t="n">
+        <v>2132</v>
+      </c>
       <c r="J622" t="inlineStr"/>
-      <c r="K622" t="inlineStr"/>
+      <c r="K622" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -20944,11 +21140,17 @@
         <v>-275978.3587196998</v>
       </c>
       <c r="H623" t="n">
-        <v>0</v>
-      </c>
-      <c r="I623" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I623" t="n">
+        <v>2139</v>
+      </c>
       <c r="J623" t="inlineStr"/>
-      <c r="K623" t="inlineStr"/>
+      <c r="K623" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -20981,7 +21183,11 @@
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
-      <c r="K624" t="inlineStr"/>
+      <c r="K624" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -21014,7 +21220,11 @@
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
-      <c r="K625" t="inlineStr"/>
+      <c r="K625" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -21047,7 +21257,11 @@
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
-      <c r="K626" t="inlineStr"/>
+      <c r="K626" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -21080,7 +21294,11 @@
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
-      <c r="K627" t="inlineStr"/>
+      <c r="K627" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -21113,7 +21331,11 @@
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
-      <c r="K628" t="inlineStr"/>
+      <c r="K628" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -21146,7 +21368,11 @@
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr"/>
+      <c r="K629" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -21179,7 +21405,11 @@
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr"/>
+      <c r="K630" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -21212,7 +21442,11 @@
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
-      <c r="K631" t="inlineStr"/>
+      <c r="K631" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -21241,15 +21475,13 @@
         <v>-267603.1539196998</v>
       </c>
       <c r="H632" t="n">
-        <v>2</v>
-      </c>
-      <c r="I632" t="n">
-        <v>2124</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
       <c r="K632" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L632" t="n">
@@ -21280,11 +21512,9 @@
         <v>-265179.2363196998</v>
       </c>
       <c r="H633" t="n">
-        <v>2</v>
-      </c>
-      <c r="I633" t="n">
-        <v>2128</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
       <c r="K633" t="inlineStr">
         <is>
@@ -21319,7 +21549,7 @@
         <v>-267770.8513196998</v>
       </c>
       <c r="H634" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I634" t="n">
         <v>2132</v>
@@ -21358,7 +21588,7 @@
         <v>-267770.8513196998</v>
       </c>
       <c r="H635" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I635" t="n">
         <v>2130</v>
@@ -21397,7 +21627,7 @@
         <v>-266151.2113196998</v>
       </c>
       <c r="H636" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I636" t="n">
         <v>2130</v>
@@ -21436,9 +21666,11 @@
         <v>-265728.0519196998</v>
       </c>
       <c r="H637" t="n">
-        <v>0</v>
-      </c>
-      <c r="I637" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I637" t="n">
+        <v>2143</v>
+      </c>
       <c r="J637" t="inlineStr"/>
       <c r="K637" t="inlineStr">
         <is>
@@ -21695,11 +21927,9 @@
         <v>-266050.3287196998</v>
       </c>
       <c r="H644" t="n">
-        <v>2</v>
-      </c>
-      <c r="I644" t="n">
-        <v>2138</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
       <c r="K644" t="inlineStr">
         <is>
@@ -21734,11 +21964,9 @@
         <v>-263015.5043196998</v>
       </c>
       <c r="H645" t="n">
-        <v>2</v>
-      </c>
-      <c r="I645" t="n">
-        <v>2141</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
       <c r="K645" t="inlineStr">
         <is>
@@ -21773,11 +22001,9 @@
         <v>-259693.6118196998</v>
       </c>
       <c r="H646" t="n">
-        <v>2</v>
-      </c>
-      <c r="I646" t="n">
-        <v>2149</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
       <c r="K646" t="inlineStr">
         <is>
@@ -21812,11 +22038,9 @@
         <v>-258939.1837196998</v>
       </c>
       <c r="H647" t="n">
-        <v>2</v>
-      </c>
-      <c r="I647" t="n">
-        <v>2153</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
       <c r="K647" t="inlineStr">
         <is>
@@ -21999,7 +22223,7 @@
         <v>-255101.7750450198</v>
       </c>
       <c r="H652" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
@@ -22073,7 +22297,7 @@
         <v>-253549.0554450198</v>
       </c>
       <c r="H654" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
@@ -22110,7 +22334,7 @@
         <v>-254581.6429719198</v>
       </c>
       <c r="H655" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
@@ -22147,7 +22371,7 @@
         <v>-253342.6761719198</v>
       </c>
       <c r="H656" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
@@ -22221,7 +22445,7 @@
         <v>-253920.9504719198</v>
       </c>
       <c r="H658" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
@@ -22258,7 +22482,7 @@
         <v>-253920.9504719198</v>
       </c>
       <c r="H659" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
@@ -22887,9 +23111,11 @@
         <v>-249716.8376719198</v>
       </c>
       <c r="H676" t="n">
-        <v>0</v>
-      </c>
-      <c r="I676" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I676" t="n">
+        <v>2166</v>
+      </c>
       <c r="J676" t="inlineStr"/>
       <c r="K676" t="inlineStr">
         <is>
@@ -22902,6 +23128,6 @@
       <c r="M676" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-21 BackTest QTUM.xlsx
+++ b/BackTest/2020-01-21 BackTest QTUM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -814,7 +814,7 @@
         <v>11168.09866677001</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>11168.09866677001</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>11168.09866677001</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>11239.99866677001</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>13036.29986677</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>13011.29986677</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>14350.90622649001</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>12382.86662649001</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>12383.79292649</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>12168.08242649001</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>14128.29237173</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>12868.98047173</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>12659.81207173</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>11659.81207173</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>11495.61187173</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>7519.843871730003</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>7271.123271730004</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>7758.503971730003</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>7879.503971730003</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>7879.503971730003</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>9572.541051800003</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>9602.737951800003</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>9099.743551800004</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>9196.937338910004</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>9689.697638910004</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>2195.657738910004</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>2287.701338910004</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>6355.786638910005</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>6355.786638910005</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>6355.786638910005</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>6355.786638910005</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>6355.786638910005</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>5950.957338910005</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>5950.957338910005</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>7807.033238910005</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>6466.958338910004</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>6466.958338910004</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-551.9611059499923</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-383.8592059499923</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-383.8592059499923</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>1773.953994050008</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>1875.183994050008</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>2240.740294050008</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>-10078.16986143999</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>-10108.96986143999</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>-10002.64556143999</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>-10002.64556143999</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-10412.58046143999</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-10443.85636143999</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>-10356.35146143999</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>-10328.97919866999</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>-10047.74599866999</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>-10047.74599866999</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-9513.581098669993</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-12473.39159866999</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-11909.23999866999</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-11927.98859866999</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>-19410.69105925999</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>-17812.69105925999</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>-16812.69105925999</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>-16486.59975925999</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>-16576.40985925999</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>-15591.19365925999</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>-15591.19365925999</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>-15891.19365925999</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>-15723.67985925999</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>-15823.67985925999</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>-13625.35405925999</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>-15625.35405925999</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>-15332.86335925999</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>-15761.16135925999</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>-21132.46805925999</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>-31059.81475925999</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>-36817.29025925999</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>-36817.29025925999</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>-35505.15015925999</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>-35505.15015925999</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>-35506.15015925999</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>-35506.15015925999</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>-35988.15015925999</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>-36792.66505925998</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>-37010.93705925998</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>-37010.93705925998</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>-40348.14595925998</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>-39897.40168794998</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>-40194.76938794998</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>-40184.95158794998</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>-44147.82288794998</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>-44147.82288794998</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>-44147.82288794998</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>-49837.25948794998</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>-49684.12888794998</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>-47084.12888794998</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>-49407.51658794998</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>-49498.48528794998</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -11275,7 +11275,7 @@
         <v>-226065.40709061</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11308,7 +11308,7 @@
         <v>-226065.40709061</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11374,7 +11374,7 @@
         <v>-227690.07939061</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11407,7 +11407,7 @@
         <v>-228700.07929061</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -19195,14 +19195,10 @@
         <v>-258523.7834196999</v>
       </c>
       <c r="H570" t="n">
-        <v>1</v>
-      </c>
-      <c r="I570" t="n">
-        <v>2143</v>
-      </c>
-      <c r="J570" t="n">
-        <v>2143</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I570" t="inlineStr"/>
+      <c r="J570" t="inlineStr"/>
       <c r="K570" t="inlineStr"/>
       <c r="L570" t="n">
         <v>1</v>
@@ -19232,19 +19228,11 @@
         <v>-258401.8612196999</v>
       </c>
       <c r="H571" t="n">
-        <v>1</v>
-      </c>
-      <c r="I571" t="n">
-        <v>2145</v>
-      </c>
-      <c r="J571" t="n">
-        <v>2143</v>
-      </c>
-      <c r="K571" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I571" t="inlineStr"/>
+      <c r="J571" t="inlineStr"/>
+      <c r="K571" t="inlineStr"/>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -19273,19 +19261,11 @@
         <v>-255663.2608196999</v>
       </c>
       <c r="H572" t="n">
-        <v>1</v>
-      </c>
-      <c r="I572" t="n">
-        <v>2156</v>
-      </c>
-      <c r="J572" t="n">
-        <v>2143</v>
-      </c>
-      <c r="K572" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I572" t="inlineStr"/>
+      <c r="J572" t="inlineStr"/>
+      <c r="K572" t="inlineStr"/>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -19842,407 +19822,353 @@
         <v>-266214.0893196999</v>
       </c>
       <c r="H589" t="n">
-        <v>1</v>
-      </c>
-      <c r="I589" t="n">
+        <v>0</v>
+      </c>
+      <c r="I589" t="inlineStr"/>
+      <c r="J589" t="inlineStr"/>
+      <c r="K589" t="inlineStr"/>
+      <c r="L589" t="n">
+        <v>1</v>
+      </c>
+      <c r="M589" t="inlineStr"/>
+    </row>
+    <row r="590">
+      <c r="A590" s="1" t="n">
+        <v>588</v>
+      </c>
+      <c r="B590" t="n">
         <v>2139</v>
       </c>
-      <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr">
+      <c r="C590" t="n">
+        <v>2139</v>
+      </c>
+      <c r="D590" t="n">
+        <v>2139</v>
+      </c>
+      <c r="E590" t="n">
+        <v>2138</v>
+      </c>
+      <c r="F590" t="n">
+        <v>1700.3183</v>
+      </c>
+      <c r="G590" t="n">
+        <v>-266214.0893196999</v>
+      </c>
+      <c r="H590" t="n">
+        <v>0</v>
+      </c>
+      <c r="I590" t="inlineStr"/>
+      <c r="J590" t="inlineStr"/>
+      <c r="K590" t="inlineStr"/>
+      <c r="L590" t="n">
+        <v>1</v>
+      </c>
+      <c r="M590" t="inlineStr"/>
+    </row>
+    <row r="591">
+      <c r="A591" s="1" t="n">
+        <v>589</v>
+      </c>
+      <c r="B591" t="n">
+        <v>2138</v>
+      </c>
+      <c r="C591" t="n">
+        <v>2134</v>
+      </c>
+      <c r="D591" t="n">
+        <v>2138</v>
+      </c>
+      <c r="E591" t="n">
+        <v>2134</v>
+      </c>
+      <c r="F591" t="n">
+        <v>760.1439</v>
+      </c>
+      <c r="G591" t="n">
+        <v>-266974.2332196999</v>
+      </c>
+      <c r="H591" t="n">
+        <v>0</v>
+      </c>
+      <c r="I591" t="inlineStr"/>
+      <c r="J591" t="inlineStr"/>
+      <c r="K591" t="inlineStr"/>
+      <c r="L591" t="n">
+        <v>1</v>
+      </c>
+      <c r="M591" t="inlineStr"/>
+    </row>
+    <row r="592">
+      <c r="A592" s="1" t="n">
+        <v>590</v>
+      </c>
+      <c r="B592" t="n">
+        <v>2134</v>
+      </c>
+      <c r="C592" t="n">
+        <v>2130</v>
+      </c>
+      <c r="D592" t="n">
+        <v>2134</v>
+      </c>
+      <c r="E592" t="n">
+        <v>2130</v>
+      </c>
+      <c r="F592" t="n">
+        <v>710.4597</v>
+      </c>
+      <c r="G592" t="n">
+        <v>-267684.6929196999</v>
+      </c>
+      <c r="H592" t="n">
+        <v>0</v>
+      </c>
+      <c r="I592" t="inlineStr"/>
+      <c r="J592" t="inlineStr"/>
+      <c r="K592" t="inlineStr"/>
+      <c r="L592" t="n">
+        <v>1</v>
+      </c>
+      <c r="M592" t="inlineStr"/>
+    </row>
+    <row r="593">
+      <c r="A593" s="1" t="n">
+        <v>591</v>
+      </c>
+      <c r="B593" t="n">
+        <v>2131</v>
+      </c>
+      <c r="C593" t="n">
+        <v>2128</v>
+      </c>
+      <c r="D593" t="n">
+        <v>2131</v>
+      </c>
+      <c r="E593" t="n">
+        <v>2127</v>
+      </c>
+      <c r="F593" t="n">
+        <v>760.7337</v>
+      </c>
+      <c r="G593" t="n">
+        <v>-268445.4266196999</v>
+      </c>
+      <c r="H593" t="n">
+        <v>0</v>
+      </c>
+      <c r="I593" t="inlineStr"/>
+      <c r="J593" t="inlineStr"/>
+      <c r="K593" t="inlineStr"/>
+      <c r="L593" t="n">
+        <v>1</v>
+      </c>
+      <c r="M593" t="inlineStr"/>
+    </row>
+    <row r="594">
+      <c r="A594" s="1" t="n">
+        <v>592</v>
+      </c>
+      <c r="B594" t="n">
+        <v>2127</v>
+      </c>
+      <c r="C594" t="n">
+        <v>2130</v>
+      </c>
+      <c r="D594" t="n">
+        <v>2131</v>
+      </c>
+      <c r="E594" t="n">
+        <v>2127</v>
+      </c>
+      <c r="F594" t="n">
+        <v>972.9742</v>
+      </c>
+      <c r="G594" t="n">
+        <v>-267472.4524196999</v>
+      </c>
+      <c r="H594" t="n">
+        <v>0</v>
+      </c>
+      <c r="I594" t="inlineStr"/>
+      <c r="J594" t="inlineStr"/>
+      <c r="K594" t="inlineStr"/>
+      <c r="L594" t="n">
+        <v>1</v>
+      </c>
+      <c r="M594" t="inlineStr"/>
+    </row>
+    <row r="595">
+      <c r="A595" s="1" t="n">
+        <v>593</v>
+      </c>
+      <c r="B595" t="n">
+        <v>2127</v>
+      </c>
+      <c r="C595" t="n">
+        <v>2125</v>
+      </c>
+      <c r="D595" t="n">
+        <v>2133</v>
+      </c>
+      <c r="E595" t="n">
+        <v>2125</v>
+      </c>
+      <c r="F595" t="n">
+        <v>3581.7019</v>
+      </c>
+      <c r="G595" t="n">
+        <v>-271054.1543196999</v>
+      </c>
+      <c r="H595" t="n">
+        <v>0</v>
+      </c>
+      <c r="I595" t="inlineStr"/>
+      <c r="J595" t="inlineStr"/>
+      <c r="K595" t="inlineStr"/>
+      <c r="L595" t="n">
+        <v>1</v>
+      </c>
+      <c r="M595" t="inlineStr"/>
+    </row>
+    <row r="596">
+      <c r="A596" s="1" t="n">
+        <v>594</v>
+      </c>
+      <c r="B596" t="n">
+        <v>2132</v>
+      </c>
+      <c r="C596" t="n">
+        <v>2125</v>
+      </c>
+      <c r="D596" t="n">
+        <v>2132</v>
+      </c>
+      <c r="E596" t="n">
+        <v>2116</v>
+      </c>
+      <c r="F596" t="n">
+        <v>3767.4207</v>
+      </c>
+      <c r="G596" t="n">
+        <v>-271054.1543196999</v>
+      </c>
+      <c r="H596" t="n">
+        <v>0</v>
+      </c>
+      <c r="I596" t="inlineStr"/>
+      <c r="J596" t="inlineStr"/>
+      <c r="K596" t="inlineStr"/>
+      <c r="L596" t="n">
+        <v>1</v>
+      </c>
+      <c r="M596" t="inlineStr"/>
+    </row>
+    <row r="597">
+      <c r="A597" s="1" t="n">
+        <v>595</v>
+      </c>
+      <c r="B597" t="n">
+        <v>2125</v>
+      </c>
+      <c r="C597" t="n">
+        <v>2139</v>
+      </c>
+      <c r="D597" t="n">
+        <v>2139</v>
+      </c>
+      <c r="E597" t="n">
+        <v>2125</v>
+      </c>
+      <c r="F597" t="n">
+        <v>3381</v>
+      </c>
+      <c r="G597" t="n">
+        <v>-267673.1543196999</v>
+      </c>
+      <c r="H597" t="n">
+        <v>0</v>
+      </c>
+      <c r="I597" t="inlineStr"/>
+      <c r="J597" t="inlineStr"/>
+      <c r="K597" t="inlineStr"/>
+      <c r="L597" t="n">
+        <v>1</v>
+      </c>
+      <c r="M597" t="inlineStr"/>
+    </row>
+    <row r="598">
+      <c r="A598" s="1" t="n">
+        <v>596</v>
+      </c>
+      <c r="B598" t="n">
+        <v>2130</v>
+      </c>
+      <c r="C598" t="n">
+        <v>2130</v>
+      </c>
+      <c r="D598" t="n">
+        <v>2130</v>
+      </c>
+      <c r="E598" t="n">
+        <v>2130</v>
+      </c>
+      <c r="F598" t="n">
+        <v>265.9373</v>
+      </c>
+      <c r="G598" t="n">
+        <v>-267939.0916196998</v>
+      </c>
+      <c r="H598" t="n">
+        <v>1</v>
+      </c>
+      <c r="I598" t="n">
+        <v>2139</v>
+      </c>
+      <c r="J598" t="n">
+        <v>2139</v>
+      </c>
+      <c r="K598" t="inlineStr"/>
+      <c r="L598" t="n">
+        <v>1</v>
+      </c>
+      <c r="M598" t="inlineStr"/>
+    </row>
+    <row r="599">
+      <c r="A599" s="1" t="n">
+        <v>597</v>
+      </c>
+      <c r="B599" t="n">
+        <v>2137</v>
+      </c>
+      <c r="C599" t="n">
+        <v>2139</v>
+      </c>
+      <c r="D599" t="n">
+        <v>2139</v>
+      </c>
+      <c r="E599" t="n">
+        <v>2137</v>
+      </c>
+      <c r="F599" t="n">
+        <v>713.6143</v>
+      </c>
+      <c r="G599" t="n">
+        <v>-267225.4773196998</v>
+      </c>
+      <c r="H599" t="n">
+        <v>1</v>
+      </c>
+      <c r="I599" t="n">
+        <v>2130</v>
+      </c>
+      <c r="J599" t="n">
+        <v>2139</v>
+      </c>
+      <c r="K599" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L589" t="n">
-        <v>1</v>
-      </c>
-      <c r="M589" t="inlineStr"/>
-    </row>
-    <row r="590">
-      <c r="A590" s="1" t="n">
-        <v>588</v>
-      </c>
-      <c r="B590" t="n">
-        <v>2139</v>
-      </c>
-      <c r="C590" t="n">
-        <v>2139</v>
-      </c>
-      <c r="D590" t="n">
-        <v>2139</v>
-      </c>
-      <c r="E590" t="n">
-        <v>2138</v>
-      </c>
-      <c r="F590" t="n">
-        <v>1700.3183</v>
-      </c>
-      <c r="G590" t="n">
-        <v>-266214.0893196999</v>
-      </c>
-      <c r="H590" t="n">
-        <v>1</v>
-      </c>
-      <c r="I590" t="n">
-        <v>2139</v>
-      </c>
-      <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L590" t="n">
-        <v>1</v>
-      </c>
-      <c r="M590" t="inlineStr"/>
-    </row>
-    <row r="591">
-      <c r="A591" s="1" t="n">
-        <v>589</v>
-      </c>
-      <c r="B591" t="n">
-        <v>2138</v>
-      </c>
-      <c r="C591" t="n">
-        <v>2134</v>
-      </c>
-      <c r="D591" t="n">
-        <v>2138</v>
-      </c>
-      <c r="E591" t="n">
-        <v>2134</v>
-      </c>
-      <c r="F591" t="n">
-        <v>760.1439</v>
-      </c>
-      <c r="G591" t="n">
-        <v>-266974.2332196999</v>
-      </c>
-      <c r="H591" t="n">
-        <v>1</v>
-      </c>
-      <c r="I591" t="n">
-        <v>2139</v>
-      </c>
-      <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L591" t="n">
-        <v>1</v>
-      </c>
-      <c r="M591" t="inlineStr"/>
-    </row>
-    <row r="592">
-      <c r="A592" s="1" t="n">
-        <v>590</v>
-      </c>
-      <c r="B592" t="n">
-        <v>2134</v>
-      </c>
-      <c r="C592" t="n">
-        <v>2130</v>
-      </c>
-      <c r="D592" t="n">
-        <v>2134</v>
-      </c>
-      <c r="E592" t="n">
-        <v>2130</v>
-      </c>
-      <c r="F592" t="n">
-        <v>710.4597</v>
-      </c>
-      <c r="G592" t="n">
-        <v>-267684.6929196999</v>
-      </c>
-      <c r="H592" t="n">
-        <v>1</v>
-      </c>
-      <c r="I592" t="n">
-        <v>2134</v>
-      </c>
-      <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L592" t="n">
-        <v>1</v>
-      </c>
-      <c r="M592" t="inlineStr"/>
-    </row>
-    <row r="593">
-      <c r="A593" s="1" t="n">
-        <v>591</v>
-      </c>
-      <c r="B593" t="n">
-        <v>2131</v>
-      </c>
-      <c r="C593" t="n">
-        <v>2128</v>
-      </c>
-      <c r="D593" t="n">
-        <v>2131</v>
-      </c>
-      <c r="E593" t="n">
-        <v>2127</v>
-      </c>
-      <c r="F593" t="n">
-        <v>760.7337</v>
-      </c>
-      <c r="G593" t="n">
-        <v>-268445.4266196999</v>
-      </c>
-      <c r="H593" t="n">
-        <v>1</v>
-      </c>
-      <c r="I593" t="n">
-        <v>2130</v>
-      </c>
-      <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L593" t="n">
-        <v>1</v>
-      </c>
-      <c r="M593" t="inlineStr"/>
-    </row>
-    <row r="594">
-      <c r="A594" s="1" t="n">
-        <v>592</v>
-      </c>
-      <c r="B594" t="n">
-        <v>2127</v>
-      </c>
-      <c r="C594" t="n">
-        <v>2130</v>
-      </c>
-      <c r="D594" t="n">
-        <v>2131</v>
-      </c>
-      <c r="E594" t="n">
-        <v>2127</v>
-      </c>
-      <c r="F594" t="n">
-        <v>972.9742</v>
-      </c>
-      <c r="G594" t="n">
-        <v>-267472.4524196999</v>
-      </c>
-      <c r="H594" t="n">
-        <v>1</v>
-      </c>
-      <c r="I594" t="n">
-        <v>2128</v>
-      </c>
-      <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L594" t="n">
-        <v>1</v>
-      </c>
-      <c r="M594" t="inlineStr"/>
-    </row>
-    <row r="595">
-      <c r="A595" s="1" t="n">
-        <v>593</v>
-      </c>
-      <c r="B595" t="n">
-        <v>2127</v>
-      </c>
-      <c r="C595" t="n">
-        <v>2125</v>
-      </c>
-      <c r="D595" t="n">
-        <v>2133</v>
-      </c>
-      <c r="E595" t="n">
-        <v>2125</v>
-      </c>
-      <c r="F595" t="n">
-        <v>3581.7019</v>
-      </c>
-      <c r="G595" t="n">
-        <v>-271054.1543196999</v>
-      </c>
-      <c r="H595" t="n">
-        <v>1</v>
-      </c>
-      <c r="I595" t="n">
-        <v>2130</v>
-      </c>
-      <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L595" t="n">
-        <v>1</v>
-      </c>
-      <c r="M595" t="inlineStr"/>
-    </row>
-    <row r="596">
-      <c r="A596" s="1" t="n">
-        <v>594</v>
-      </c>
-      <c r="B596" t="n">
-        <v>2132</v>
-      </c>
-      <c r="C596" t="n">
-        <v>2125</v>
-      </c>
-      <c r="D596" t="n">
-        <v>2132</v>
-      </c>
-      <c r="E596" t="n">
-        <v>2116</v>
-      </c>
-      <c r="F596" t="n">
-        <v>3767.4207</v>
-      </c>
-      <c r="G596" t="n">
-        <v>-271054.1543196999</v>
-      </c>
-      <c r="H596" t="n">
-        <v>1</v>
-      </c>
-      <c r="I596" t="n">
-        <v>2125</v>
-      </c>
-      <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L596" t="n">
-        <v>1</v>
-      </c>
-      <c r="M596" t="inlineStr"/>
-    </row>
-    <row r="597">
-      <c r="A597" s="1" t="n">
-        <v>595</v>
-      </c>
-      <c r="B597" t="n">
-        <v>2125</v>
-      </c>
-      <c r="C597" t="n">
-        <v>2139</v>
-      </c>
-      <c r="D597" t="n">
-        <v>2139</v>
-      </c>
-      <c r="E597" t="n">
-        <v>2125</v>
-      </c>
-      <c r="F597" t="n">
-        <v>3381</v>
-      </c>
-      <c r="G597" t="n">
-        <v>-267673.1543196999</v>
-      </c>
-      <c r="H597" t="n">
-        <v>1</v>
-      </c>
-      <c r="I597" t="n">
-        <v>2125</v>
-      </c>
-      <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L597" t="n">
-        <v>1</v>
-      </c>
-      <c r="M597" t="inlineStr"/>
-    </row>
-    <row r="598">
-      <c r="A598" s="1" t="n">
-        <v>596</v>
-      </c>
-      <c r="B598" t="n">
-        <v>2130</v>
-      </c>
-      <c r="C598" t="n">
-        <v>2130</v>
-      </c>
-      <c r="D598" t="n">
-        <v>2130</v>
-      </c>
-      <c r="E598" t="n">
-        <v>2130</v>
-      </c>
-      <c r="F598" t="n">
-        <v>265.9373</v>
-      </c>
-      <c r="G598" t="n">
-        <v>-267939.0916196998</v>
-      </c>
-      <c r="H598" t="n">
-        <v>1</v>
-      </c>
-      <c r="I598" t="n">
-        <v>2139</v>
-      </c>
-      <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L598" t="n">
-        <v>1</v>
-      </c>
-      <c r="M598" t="inlineStr"/>
-    </row>
-    <row r="599">
-      <c r="A599" s="1" t="n">
-        <v>597</v>
-      </c>
-      <c r="B599" t="n">
-        <v>2137</v>
-      </c>
-      <c r="C599" t="n">
-        <v>2139</v>
-      </c>
-      <c r="D599" t="n">
-        <v>2139</v>
-      </c>
-      <c r="E599" t="n">
-        <v>2137</v>
-      </c>
-      <c r="F599" t="n">
-        <v>713.6143</v>
-      </c>
-      <c r="G599" t="n">
-        <v>-267225.4773196998</v>
-      </c>
-      <c r="H599" t="n">
-        <v>1</v>
-      </c>
-      <c r="I599" t="n">
-        <v>2130</v>
-      </c>
-      <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -20276,7 +20202,9 @@
       <c r="I600" t="n">
         <v>2139</v>
       </c>
-      <c r="J600" t="inlineStr"/>
+      <c r="J600" t="n">
+        <v>2139</v>
+      </c>
       <c r="K600" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20310,12 +20238,12 @@
         <v>-271458.8941196998</v>
       </c>
       <c r="H601" t="n">
-        <v>1</v>
-      </c>
-      <c r="I601" t="n">
-        <v>2148</v>
-      </c>
-      <c r="J601" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I601" t="inlineStr"/>
+      <c r="J601" t="n">
+        <v>2139</v>
+      </c>
       <c r="K601" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20349,12 +20277,12 @@
         <v>-271266.4355196998</v>
       </c>
       <c r="H602" t="n">
-        <v>1</v>
-      </c>
-      <c r="I602" t="n">
-        <v>2135</v>
-      </c>
-      <c r="J602" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I602" t="inlineStr"/>
+      <c r="J602" t="n">
+        <v>2139</v>
+      </c>
       <c r="K602" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20388,12 +20316,12 @@
         <v>-271266.4355196998</v>
       </c>
       <c r="H603" t="n">
-        <v>1</v>
-      </c>
-      <c r="I603" t="n">
-        <v>2141</v>
-      </c>
-      <c r="J603" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I603" t="inlineStr"/>
+      <c r="J603" t="n">
+        <v>2139</v>
+      </c>
       <c r="K603" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20427,12 +20355,12 @@
         <v>-271848.2109196998</v>
       </c>
       <c r="H604" t="n">
-        <v>1</v>
-      </c>
-      <c r="I604" t="n">
-        <v>2141</v>
-      </c>
-      <c r="J604" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I604" t="inlineStr"/>
+      <c r="J604" t="n">
+        <v>2139</v>
+      </c>
       <c r="K604" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20466,12 +20394,12 @@
         <v>-271769.2559196998</v>
       </c>
       <c r="H605" t="n">
-        <v>1</v>
-      </c>
-      <c r="I605" t="n">
-        <v>2134</v>
-      </c>
-      <c r="J605" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I605" t="inlineStr"/>
+      <c r="J605" t="n">
+        <v>2139</v>
+      </c>
       <c r="K605" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20505,12 +20433,12 @@
         <v>-271487.5244196998</v>
       </c>
       <c r="H606" t="n">
-        <v>1</v>
-      </c>
-      <c r="I606" t="n">
-        <v>2140</v>
-      </c>
-      <c r="J606" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I606" t="inlineStr"/>
+      <c r="J606" t="n">
+        <v>2139</v>
+      </c>
       <c r="K606" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20547,7 +20475,9 @@
         <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
-      <c r="J607" t="inlineStr"/>
+      <c r="J607" t="n">
+        <v>2139</v>
+      </c>
       <c r="K607" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20584,7 +20514,9 @@
         <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
-      <c r="J608" t="inlineStr"/>
+      <c r="J608" t="n">
+        <v>2139</v>
+      </c>
       <c r="K608" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20621,7 +20553,9 @@
         <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
-      <c r="J609" t="inlineStr"/>
+      <c r="J609" t="n">
+        <v>2139</v>
+      </c>
       <c r="K609" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20658,7 +20592,9 @@
         <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
-      <c r="J610" t="inlineStr"/>
+      <c r="J610" t="n">
+        <v>2139</v>
+      </c>
       <c r="K610" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20695,7 +20631,9 @@
         <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
-      <c r="J611" t="inlineStr"/>
+      <c r="J611" t="n">
+        <v>2139</v>
+      </c>
       <c r="K611" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20732,7 +20670,9 @@
         <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
-      <c r="J612" t="inlineStr"/>
+      <c r="J612" t="n">
+        <v>2139</v>
+      </c>
       <c r="K612" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20769,7 +20709,9 @@
         <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
-      <c r="J613" t="inlineStr"/>
+      <c r="J613" t="n">
+        <v>2139</v>
+      </c>
       <c r="K613" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20806,7 +20748,9 @@
         <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
-      <c r="J614" t="inlineStr"/>
+      <c r="J614" t="n">
+        <v>2139</v>
+      </c>
       <c r="K614" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20843,7 +20787,9 @@
         <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
-      <c r="J615" t="inlineStr"/>
+      <c r="J615" t="n">
+        <v>2139</v>
+      </c>
       <c r="K615" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20880,7 +20826,9 @@
         <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
-      <c r="J616" t="inlineStr"/>
+      <c r="J616" t="n">
+        <v>2139</v>
+      </c>
       <c r="K616" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20917,7 +20865,9 @@
         <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
-      <c r="J617" t="inlineStr"/>
+      <c r="J617" t="n">
+        <v>2139</v>
+      </c>
       <c r="K617" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20954,7 +20904,9 @@
         <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
-      <c r="J618" t="inlineStr"/>
+      <c r="J618" t="n">
+        <v>2139</v>
+      </c>
       <c r="K618" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20991,7 +20943,9 @@
         <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
-      <c r="J619" t="inlineStr"/>
+      <c r="J619" t="n">
+        <v>2139</v>
+      </c>
       <c r="K619" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21028,7 +20982,9 @@
         <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
-      <c r="J620" t="inlineStr"/>
+      <c r="J620" t="n">
+        <v>2139</v>
+      </c>
       <c r="K620" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21062,12 +21018,12 @@
         <v>-276460.0084196998</v>
       </c>
       <c r="H621" t="n">
-        <v>1</v>
-      </c>
-      <c r="I621" t="n">
-        <v>2131</v>
-      </c>
-      <c r="J621" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I621" t="inlineStr"/>
+      <c r="J621" t="n">
+        <v>2139</v>
+      </c>
       <c r="K621" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21101,12 +21057,12 @@
         <v>-275886.3587196998</v>
       </c>
       <c r="H622" t="n">
-        <v>1</v>
-      </c>
-      <c r="I622" t="n">
-        <v>2132</v>
-      </c>
-      <c r="J622" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I622" t="inlineStr"/>
+      <c r="J622" t="n">
+        <v>2139</v>
+      </c>
       <c r="K622" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21140,12 +21096,12 @@
         <v>-275978.3587196998</v>
       </c>
       <c r="H623" t="n">
-        <v>1</v>
-      </c>
-      <c r="I623" t="n">
+        <v>0</v>
+      </c>
+      <c r="I623" t="inlineStr"/>
+      <c r="J623" t="n">
         <v>2139</v>
       </c>
-      <c r="J623" t="inlineStr"/>
       <c r="K623" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21182,7 +21138,9 @@
         <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
-      <c r="J624" t="inlineStr"/>
+      <c r="J624" t="n">
+        <v>2139</v>
+      </c>
       <c r="K624" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21219,7 +21177,9 @@
         <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
-      <c r="J625" t="inlineStr"/>
+      <c r="J625" t="n">
+        <v>2139</v>
+      </c>
       <c r="K625" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21256,7 +21216,9 @@
         <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
-      <c r="J626" t="inlineStr"/>
+      <c r="J626" t="n">
+        <v>2139</v>
+      </c>
       <c r="K626" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21293,7 +21255,9 @@
         <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
-      <c r="J627" t="inlineStr"/>
+      <c r="J627" t="n">
+        <v>2139</v>
+      </c>
       <c r="K627" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21330,7 +21294,9 @@
         <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
-      <c r="J628" t="inlineStr"/>
+      <c r="J628" t="n">
+        <v>2139</v>
+      </c>
       <c r="K628" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21367,7 +21333,9 @@
         <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
-      <c r="J629" t="inlineStr"/>
+      <c r="J629" t="n">
+        <v>2139</v>
+      </c>
       <c r="K629" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21404,7 +21372,9 @@
         <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
-      <c r="J630" t="inlineStr"/>
+      <c r="J630" t="n">
+        <v>2139</v>
+      </c>
       <c r="K630" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21441,7 +21411,9 @@
         <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
-      <c r="J631" t="inlineStr"/>
+      <c r="J631" t="n">
+        <v>2139</v>
+      </c>
       <c r="K631" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21478,7 +21450,9 @@
         <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
-      <c r="J632" t="inlineStr"/>
+      <c r="J632" t="n">
+        <v>2139</v>
+      </c>
       <c r="K632" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21515,7 +21489,9 @@
         <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
-      <c r="J633" t="inlineStr"/>
+      <c r="J633" t="n">
+        <v>2139</v>
+      </c>
       <c r="K633" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21549,12 +21525,12 @@
         <v>-267770.8513196998</v>
       </c>
       <c r="H634" t="n">
-        <v>1</v>
-      </c>
-      <c r="I634" t="n">
-        <v>2132</v>
-      </c>
-      <c r="J634" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I634" t="inlineStr"/>
+      <c r="J634" t="n">
+        <v>2139</v>
+      </c>
       <c r="K634" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21588,12 +21564,12 @@
         <v>-267770.8513196998</v>
       </c>
       <c r="H635" t="n">
-        <v>1</v>
-      </c>
-      <c r="I635" t="n">
-        <v>2130</v>
-      </c>
-      <c r="J635" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I635" t="inlineStr"/>
+      <c r="J635" t="n">
+        <v>2139</v>
+      </c>
       <c r="K635" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21627,12 +21603,12 @@
         <v>-266151.2113196998</v>
       </c>
       <c r="H636" t="n">
-        <v>1</v>
-      </c>
-      <c r="I636" t="n">
-        <v>2130</v>
-      </c>
-      <c r="J636" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I636" t="inlineStr"/>
+      <c r="J636" t="n">
+        <v>2139</v>
+      </c>
       <c r="K636" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21666,12 +21642,12 @@
         <v>-265728.0519196998</v>
       </c>
       <c r="H637" t="n">
-        <v>1</v>
-      </c>
-      <c r="I637" t="n">
-        <v>2143</v>
-      </c>
-      <c r="J637" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I637" t="inlineStr"/>
+      <c r="J637" t="n">
+        <v>2139</v>
+      </c>
       <c r="K637" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21708,7 +21684,9 @@
         <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
-      <c r="J638" t="inlineStr"/>
+      <c r="J638" t="n">
+        <v>2139</v>
+      </c>
       <c r="K638" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21745,7 +21723,9 @@
         <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
-      <c r="J639" t="inlineStr"/>
+      <c r="J639" t="n">
+        <v>2139</v>
+      </c>
       <c r="K639" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21782,7 +21762,9 @@
         <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
-      <c r="J640" t="inlineStr"/>
+      <c r="J640" t="n">
+        <v>2139</v>
+      </c>
       <c r="K640" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21819,7 +21801,9 @@
         <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
-      <c r="J641" t="inlineStr"/>
+      <c r="J641" t="n">
+        <v>2139</v>
+      </c>
       <c r="K641" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21856,7 +21840,9 @@
         <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
-      <c r="J642" t="inlineStr"/>
+      <c r="J642" t="n">
+        <v>2139</v>
+      </c>
       <c r="K642" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21893,7 +21879,9 @@
         <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
-      <c r="J643" t="inlineStr"/>
+      <c r="J643" t="n">
+        <v>2139</v>
+      </c>
       <c r="K643" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21930,7 +21918,9 @@
         <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
-      <c r="J644" t="inlineStr"/>
+      <c r="J644" t="n">
+        <v>2139</v>
+      </c>
       <c r="K644" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21967,7 +21957,9 @@
         <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
-      <c r="J645" t="inlineStr"/>
+      <c r="J645" t="n">
+        <v>2139</v>
+      </c>
       <c r="K645" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22004,7 +21996,9 @@
         <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
-      <c r="J646" t="inlineStr"/>
+      <c r="J646" t="n">
+        <v>2139</v>
+      </c>
       <c r="K646" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22041,7 +22035,9 @@
         <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
-      <c r="J647" t="inlineStr"/>
+      <c r="J647" t="n">
+        <v>2139</v>
+      </c>
       <c r="K647" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22078,7 +22074,9 @@
         <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
-      <c r="J648" t="inlineStr"/>
+      <c r="J648" t="n">
+        <v>2139</v>
+      </c>
       <c r="K648" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22115,7 +22113,9 @@
         <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
-      <c r="J649" t="inlineStr"/>
+      <c r="J649" t="n">
+        <v>2139</v>
+      </c>
       <c r="K649" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22152,7 +22152,9 @@
         <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
-      <c r="J650" t="inlineStr"/>
+      <c r="J650" t="n">
+        <v>2139</v>
+      </c>
       <c r="K650" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22189,7 +22191,9 @@
         <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
-      <c r="J651" t="inlineStr"/>
+      <c r="J651" t="n">
+        <v>2139</v>
+      </c>
       <c r="K651" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22226,7 +22230,9 @@
         <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
-      <c r="J652" t="inlineStr"/>
+      <c r="J652" t="n">
+        <v>2139</v>
+      </c>
       <c r="K652" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22263,7 +22269,9 @@
         <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
-      <c r="J653" t="inlineStr"/>
+      <c r="J653" t="n">
+        <v>2139</v>
+      </c>
       <c r="K653" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22300,7 +22308,9 @@
         <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
-      <c r="J654" t="inlineStr"/>
+      <c r="J654" t="n">
+        <v>2139</v>
+      </c>
       <c r="K654" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22337,7 +22347,9 @@
         <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
-      <c r="J655" t="inlineStr"/>
+      <c r="J655" t="n">
+        <v>2139</v>
+      </c>
       <c r="K655" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22374,7 +22386,9 @@
         <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
-      <c r="J656" t="inlineStr"/>
+      <c r="J656" t="n">
+        <v>2139</v>
+      </c>
       <c r="K656" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22411,7 +22425,9 @@
         <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
-      <c r="J657" t="inlineStr"/>
+      <c r="J657" t="n">
+        <v>2139</v>
+      </c>
       <c r="K657" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22448,7 +22464,9 @@
         <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
-      <c r="J658" t="inlineStr"/>
+      <c r="J658" t="n">
+        <v>2139</v>
+      </c>
       <c r="K658" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22485,7 +22503,9 @@
         <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
-      <c r="J659" t="inlineStr"/>
+      <c r="J659" t="n">
+        <v>2139</v>
+      </c>
       <c r="K659" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22522,7 +22542,9 @@
         <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
-      <c r="J660" t="inlineStr"/>
+      <c r="J660" t="n">
+        <v>2139</v>
+      </c>
       <c r="K660" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22556,17 +22578,19 @@
         <v>-256220.9261719198</v>
       </c>
       <c r="H661" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I661" t="inlineStr"/>
-      <c r="J661" t="inlineStr"/>
+      <c r="J661" t="n">
+        <v>2139</v>
+      </c>
       <c r="K661" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L661" t="n">
-        <v>1</v>
+        <v>1.008557737260402</v>
       </c>
       <c r="M661" t="inlineStr"/>
     </row>
@@ -22593,15 +22617,11 @@
         <v>-254337.0997719198</v>
       </c>
       <c r="H662" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
-      <c r="K662" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K662" t="inlineStr"/>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -22630,15 +22650,11 @@
         <v>-254489.3932719198</v>
       </c>
       <c r="H663" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
-      <c r="K663" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K663" t="inlineStr"/>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -22667,15 +22683,11 @@
         <v>-253147.3603719198</v>
       </c>
       <c r="H664" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
-      <c r="K664" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K664" t="inlineStr"/>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -22708,11 +22720,7 @@
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K665" t="inlineStr"/>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -22745,11 +22753,7 @@
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
-      <c r="K666" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K666" t="inlineStr"/>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -22782,11 +22786,7 @@
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
-      <c r="K667" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K667" t="inlineStr"/>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -22819,11 +22819,7 @@
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K668" t="inlineStr"/>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -22856,11 +22852,7 @@
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K669" t="inlineStr"/>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -22893,11 +22885,7 @@
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K670" t="inlineStr"/>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -22930,11 +22918,7 @@
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
-      <c r="K671" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K671" t="inlineStr"/>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -22967,11 +22951,7 @@
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
-      <c r="K672" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K672" t="inlineStr"/>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -23000,15 +22980,11 @@
         <v>-252509.6498719198</v>
       </c>
       <c r="H673" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K673" t="inlineStr"/>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -23037,15 +23013,11 @@
         <v>-252547.7158719198</v>
       </c>
       <c r="H674" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K674" t="inlineStr"/>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -23074,15 +23046,11 @@
         <v>-252544.8376719198</v>
       </c>
       <c r="H675" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
-      <c r="K675" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K675" t="inlineStr"/>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -23111,23 +23079,17 @@
         <v>-249716.8376719198</v>
       </c>
       <c r="H676" t="n">
-        <v>1</v>
-      </c>
-      <c r="I676" t="n">
-        <v>2166</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
-      <c r="K676" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K676" t="inlineStr"/>
       <c r="L676" t="n">
         <v>1</v>
       </c>
       <c r="M676" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-21 BackTest QTUM.xlsx
+++ b/BackTest/2020-01-21 BackTest QTUM.xlsx
@@ -451,7 +451,7 @@
         <v>14294.56344556</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>14294.56344556</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>15776.54534556001</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>15781.05956677001</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>15780.81446677001</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>12740.84626677001</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>12428.73266677001</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>12922.20176677001</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>12922.20176677001</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>12499.91656677001</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>12499.91656677001</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>11168.09866677001</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>11168.09866677001</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>11168.09866677001</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>11239.99866677001</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>13036.29986677</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>13011.29986677</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>14350.90622649001</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>12382.86662649001</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>12383.79292649</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>12168.08242649001</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>12168.08242649001</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>12168.08242649001</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>12168.08242649001</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>11998.52722649</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>11738.03922649001</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>15103.07852649</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>15049.97152649</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>15307.50567173</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>15252.50567173</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>4570.989638910005</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>3424.098938910005</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>5448.165394050005</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>5049.602194050005</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>5049.602194050005</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>5508.296994050005</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>6454.423594050006</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>6454.423594050006</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>6454.423594050006</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>5976.932194050006</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>7500.333994050006</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>7500.333994050006</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>5844.773894050007</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>6646.886194050006</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>5273.891794050007</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>5006.991794050007</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-689.5921059499924</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>2240.740294050008</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>2004.561094050008</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>2428.117794050008</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>2119.200794050008</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>2025.915294050008</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>2100.286138560008</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-1802.891461439992</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-1789.891461439992</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>-10243.82939956999</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -11275,7 +11275,7 @@
         <v>-226065.40709061</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11308,7 +11308,7 @@
         <v>-226065.40709061</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11374,7 +11374,7 @@
         <v>-227690.07939061</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11407,7 +11407,7 @@
         <v>-228700.07929061</v>
       </c>
       <c r="H334" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -20119,14 +20119,10 @@
         <v>-267939.0916196998</v>
       </c>
       <c r="H598" t="n">
-        <v>1</v>
-      </c>
-      <c r="I598" t="n">
-        <v>2139</v>
-      </c>
-      <c r="J598" t="n">
-        <v>2139</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I598" t="inlineStr"/>
+      <c r="J598" t="inlineStr"/>
       <c r="K598" t="inlineStr"/>
       <c r="L598" t="n">
         <v>1</v>
@@ -20156,918 +20152,782 @@
         <v>-267225.4773196998</v>
       </c>
       <c r="H599" t="n">
-        <v>1</v>
-      </c>
-      <c r="I599" t="n">
+        <v>0</v>
+      </c>
+      <c r="I599" t="inlineStr"/>
+      <c r="J599" t="inlineStr"/>
+      <c r="K599" t="inlineStr"/>
+      <c r="L599" t="n">
+        <v>1</v>
+      </c>
+      <c r="M599" t="inlineStr"/>
+    </row>
+    <row r="600">
+      <c r="A600" s="1" t="n">
+        <v>598</v>
+      </c>
+      <c r="B600" t="n">
+        <v>2148</v>
+      </c>
+      <c r="C600" t="n">
+        <v>2148</v>
+      </c>
+      <c r="D600" t="n">
+        <v>2148</v>
+      </c>
+      <c r="E600" t="n">
+        <v>2148</v>
+      </c>
+      <c r="F600" t="n">
+        <v>255.4131</v>
+      </c>
+      <c r="G600" t="n">
+        <v>-266970.0642196998</v>
+      </c>
+      <c r="H600" t="n">
+        <v>0</v>
+      </c>
+      <c r="I600" t="inlineStr"/>
+      <c r="J600" t="inlineStr"/>
+      <c r="K600" t="inlineStr"/>
+      <c r="L600" t="n">
+        <v>1</v>
+      </c>
+      <c r="M600" t="inlineStr"/>
+    </row>
+    <row r="601">
+      <c r="A601" s="1" t="n">
+        <v>599</v>
+      </c>
+      <c r="B601" t="n">
+        <v>2138</v>
+      </c>
+      <c r="C601" t="n">
+        <v>2135</v>
+      </c>
+      <c r="D601" t="n">
+        <v>2144</v>
+      </c>
+      <c r="E601" t="n">
+        <v>2135</v>
+      </c>
+      <c r="F601" t="n">
+        <v>4488.8299</v>
+      </c>
+      <c r="G601" t="n">
+        <v>-271458.8941196998</v>
+      </c>
+      <c r="H601" t="n">
+        <v>0</v>
+      </c>
+      <c r="I601" t="inlineStr"/>
+      <c r="J601" t="inlineStr"/>
+      <c r="K601" t="inlineStr"/>
+      <c r="L601" t="n">
+        <v>1</v>
+      </c>
+      <c r="M601" t="inlineStr"/>
+    </row>
+    <row r="602">
+      <c r="A602" s="1" t="n">
+        <v>600</v>
+      </c>
+      <c r="B602" t="n">
+        <v>2140</v>
+      </c>
+      <c r="C602" t="n">
+        <v>2141</v>
+      </c>
+      <c r="D602" t="n">
+        <v>2141</v>
+      </c>
+      <c r="E602" t="n">
+        <v>2140</v>
+      </c>
+      <c r="F602" t="n">
+        <v>192.4586</v>
+      </c>
+      <c r="G602" t="n">
+        <v>-271266.4355196998</v>
+      </c>
+      <c r="H602" t="n">
+        <v>0</v>
+      </c>
+      <c r="I602" t="inlineStr"/>
+      <c r="J602" t="inlineStr"/>
+      <c r="K602" t="inlineStr"/>
+      <c r="L602" t="n">
+        <v>1</v>
+      </c>
+      <c r="M602" t="inlineStr"/>
+    </row>
+    <row r="603">
+      <c r="A603" s="1" t="n">
+        <v>601</v>
+      </c>
+      <c r="B603" t="n">
+        <v>2135</v>
+      </c>
+      <c r="C603" t="n">
+        <v>2141</v>
+      </c>
+      <c r="D603" t="n">
+        <v>2141</v>
+      </c>
+      <c r="E603" t="n">
+        <v>2135</v>
+      </c>
+      <c r="F603" t="n">
+        <v>249.0797</v>
+      </c>
+      <c r="G603" t="n">
+        <v>-271266.4355196998</v>
+      </c>
+      <c r="H603" t="n">
+        <v>0</v>
+      </c>
+      <c r="I603" t="inlineStr"/>
+      <c r="J603" t="inlineStr"/>
+      <c r="K603" t="inlineStr"/>
+      <c r="L603" t="n">
+        <v>1</v>
+      </c>
+      <c r="M603" t="inlineStr"/>
+    </row>
+    <row r="604">
+      <c r="A604" s="1" t="n">
+        <v>602</v>
+      </c>
+      <c r="B604" t="n">
+        <v>2136</v>
+      </c>
+      <c r="C604" t="n">
+        <v>2134</v>
+      </c>
+      <c r="D604" t="n">
+        <v>2136</v>
+      </c>
+      <c r="E604" t="n">
+        <v>2134</v>
+      </c>
+      <c r="F604" t="n">
+        <v>581.7754</v>
+      </c>
+      <c r="G604" t="n">
+        <v>-271848.2109196998</v>
+      </c>
+      <c r="H604" t="n">
+        <v>0</v>
+      </c>
+      <c r="I604" t="inlineStr"/>
+      <c r="J604" t="inlineStr"/>
+      <c r="K604" t="inlineStr"/>
+      <c r="L604" t="n">
+        <v>1</v>
+      </c>
+      <c r="M604" t="inlineStr"/>
+    </row>
+    <row r="605">
+      <c r="A605" s="1" t="n">
+        <v>603</v>
+      </c>
+      <c r="B605" t="n">
+        <v>2140</v>
+      </c>
+      <c r="C605" t="n">
+        <v>2140</v>
+      </c>
+      <c r="D605" t="n">
+        <v>2140</v>
+      </c>
+      <c r="E605" t="n">
+        <v>2140</v>
+      </c>
+      <c r="F605" t="n">
+        <v>78.955</v>
+      </c>
+      <c r="G605" t="n">
+        <v>-271769.2559196998</v>
+      </c>
+      <c r="H605" t="n">
+        <v>0</v>
+      </c>
+      <c r="I605" t="inlineStr"/>
+      <c r="J605" t="inlineStr"/>
+      <c r="K605" t="inlineStr"/>
+      <c r="L605" t="n">
+        <v>1</v>
+      </c>
+      <c r="M605" t="inlineStr"/>
+    </row>
+    <row r="606">
+      <c r="A606" s="1" t="n">
+        <v>604</v>
+      </c>
+      <c r="B606" t="n">
+        <v>2141</v>
+      </c>
+      <c r="C606" t="n">
+        <v>2147</v>
+      </c>
+      <c r="D606" t="n">
+        <v>2147</v>
+      </c>
+      <c r="E606" t="n">
+        <v>2141</v>
+      </c>
+      <c r="F606" t="n">
+        <v>281.7315</v>
+      </c>
+      <c r="G606" t="n">
+        <v>-271487.5244196998</v>
+      </c>
+      <c r="H606" t="n">
+        <v>0</v>
+      </c>
+      <c r="I606" t="inlineStr"/>
+      <c r="J606" t="inlineStr"/>
+      <c r="K606" t="inlineStr"/>
+      <c r="L606" t="n">
+        <v>1</v>
+      </c>
+      <c r="M606" t="inlineStr"/>
+    </row>
+    <row r="607">
+      <c r="A607" s="1" t="n">
+        <v>605</v>
+      </c>
+      <c r="B607" t="n">
+        <v>2148</v>
+      </c>
+      <c r="C607" t="n">
+        <v>2155</v>
+      </c>
+      <c r="D607" t="n">
+        <v>2155</v>
+      </c>
+      <c r="E607" t="n">
+        <v>2148</v>
+      </c>
+      <c r="F607" t="n">
+        <v>209.1506</v>
+      </c>
+      <c r="G607" t="n">
+        <v>-271278.3738196998</v>
+      </c>
+      <c r="H607" t="n">
+        <v>0</v>
+      </c>
+      <c r="I607" t="inlineStr"/>
+      <c r="J607" t="inlineStr"/>
+      <c r="K607" t="inlineStr"/>
+      <c r="L607" t="n">
+        <v>1</v>
+      </c>
+      <c r="M607" t="inlineStr"/>
+    </row>
+    <row r="608">
+      <c r="A608" s="1" t="n">
+        <v>606</v>
+      </c>
+      <c r="B608" t="n">
+        <v>2154</v>
+      </c>
+      <c r="C608" t="n">
+        <v>2155</v>
+      </c>
+      <c r="D608" t="n">
+        <v>2155</v>
+      </c>
+      <c r="E608" t="n">
+        <v>2154</v>
+      </c>
+      <c r="F608" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G608" t="n">
+        <v>-271278.3738196998</v>
+      </c>
+      <c r="H608" t="n">
+        <v>0</v>
+      </c>
+      <c r="I608" t="inlineStr"/>
+      <c r="J608" t="inlineStr"/>
+      <c r="K608" t="inlineStr"/>
+      <c r="L608" t="n">
+        <v>1</v>
+      </c>
+      <c r="M608" t="inlineStr"/>
+    </row>
+    <row r="609">
+      <c r="A609" s="1" t="n">
+        <v>607</v>
+      </c>
+      <c r="B609" t="n">
+        <v>2150</v>
+      </c>
+      <c r="C609" t="n">
+        <v>2150</v>
+      </c>
+      <c r="D609" t="n">
+        <v>2150</v>
+      </c>
+      <c r="E609" t="n">
+        <v>2150</v>
+      </c>
+      <c r="F609" t="n">
+        <v>251.0059</v>
+      </c>
+      <c r="G609" t="n">
+        <v>-271529.3797196998</v>
+      </c>
+      <c r="H609" t="n">
+        <v>0</v>
+      </c>
+      <c r="I609" t="inlineStr"/>
+      <c r="J609" t="inlineStr"/>
+      <c r="K609" t="inlineStr"/>
+      <c r="L609" t="n">
+        <v>1</v>
+      </c>
+      <c r="M609" t="inlineStr"/>
+    </row>
+    <row r="610">
+      <c r="A610" s="1" t="n">
+        <v>608</v>
+      </c>
+      <c r="B610" t="n">
+        <v>2150</v>
+      </c>
+      <c r="C610" t="n">
+        <v>2150</v>
+      </c>
+      <c r="D610" t="n">
+        <v>2150</v>
+      </c>
+      <c r="E610" t="n">
+        <v>2150</v>
+      </c>
+      <c r="F610" t="n">
+        <v>144.5313</v>
+      </c>
+      <c r="G610" t="n">
+        <v>-271529.3797196998</v>
+      </c>
+      <c r="H610" t="n">
+        <v>0</v>
+      </c>
+      <c r="I610" t="inlineStr"/>
+      <c r="J610" t="inlineStr"/>
+      <c r="K610" t="inlineStr"/>
+      <c r="L610" t="n">
+        <v>1</v>
+      </c>
+      <c r="M610" t="inlineStr"/>
+    </row>
+    <row r="611">
+      <c r="A611" s="1" t="n">
+        <v>609</v>
+      </c>
+      <c r="B611" t="n">
+        <v>2144</v>
+      </c>
+      <c r="C611" t="n">
+        <v>2144</v>
+      </c>
+      <c r="D611" t="n">
+        <v>2144</v>
+      </c>
+      <c r="E611" t="n">
+        <v>2144</v>
+      </c>
+      <c r="F611" t="n">
+        <v>100</v>
+      </c>
+      <c r="G611" t="n">
+        <v>-271629.3797196998</v>
+      </c>
+      <c r="H611" t="n">
+        <v>0</v>
+      </c>
+      <c r="I611" t="inlineStr"/>
+      <c r="J611" t="inlineStr"/>
+      <c r="K611" t="inlineStr"/>
+      <c r="L611" t="n">
+        <v>1</v>
+      </c>
+      <c r="M611" t="inlineStr"/>
+    </row>
+    <row r="612">
+      <c r="A612" s="1" t="n">
+        <v>610</v>
+      </c>
+      <c r="B612" t="n">
+        <v>2144</v>
+      </c>
+      <c r="C612" t="n">
+        <v>2144</v>
+      </c>
+      <c r="D612" t="n">
+        <v>2144</v>
+      </c>
+      <c r="E612" t="n">
+        <v>2144</v>
+      </c>
+      <c r="F612" t="n">
+        <v>100</v>
+      </c>
+      <c r="G612" t="n">
+        <v>-271629.3797196998</v>
+      </c>
+      <c r="H612" t="n">
+        <v>0</v>
+      </c>
+      <c r="I612" t="inlineStr"/>
+      <c r="J612" t="inlineStr"/>
+      <c r="K612" t="inlineStr"/>
+      <c r="L612" t="n">
+        <v>1</v>
+      </c>
+      <c r="M612" t="inlineStr"/>
+    </row>
+    <row r="613">
+      <c r="A613" s="1" t="n">
+        <v>611</v>
+      </c>
+      <c r="B613" t="n">
+        <v>2143</v>
+      </c>
+      <c r="C613" t="n">
+        <v>2143</v>
+      </c>
+      <c r="D613" t="n">
+        <v>2143</v>
+      </c>
+      <c r="E613" t="n">
+        <v>2143</v>
+      </c>
+      <c r="F613" t="n">
+        <v>2.8167</v>
+      </c>
+      <c r="G613" t="n">
+        <v>-271632.1964196998</v>
+      </c>
+      <c r="H613" t="n">
+        <v>0</v>
+      </c>
+      <c r="I613" t="inlineStr"/>
+      <c r="J613" t="inlineStr"/>
+      <c r="K613" t="inlineStr"/>
+      <c r="L613" t="n">
+        <v>1</v>
+      </c>
+      <c r="M613" t="inlineStr"/>
+    </row>
+    <row r="614">
+      <c r="A614" s="1" t="n">
+        <v>612</v>
+      </c>
+      <c r="B614" t="n">
+        <v>2140</v>
+      </c>
+      <c r="C614" t="n">
+        <v>2142</v>
+      </c>
+      <c r="D614" t="n">
+        <v>2142</v>
+      </c>
+      <c r="E614" t="n">
+        <v>2140</v>
+      </c>
+      <c r="F614" t="n">
+        <v>761.9168</v>
+      </c>
+      <c r="G614" t="n">
+        <v>-272394.1132196998</v>
+      </c>
+      <c r="H614" t="n">
+        <v>0</v>
+      </c>
+      <c r="I614" t="inlineStr"/>
+      <c r="J614" t="inlineStr"/>
+      <c r="K614" t="inlineStr"/>
+      <c r="L614" t="n">
+        <v>1</v>
+      </c>
+      <c r="M614" t="inlineStr"/>
+    </row>
+    <row r="615">
+      <c r="A615" s="1" t="n">
+        <v>613</v>
+      </c>
+      <c r="B615" t="n">
+        <v>2140</v>
+      </c>
+      <c r="C615" t="n">
+        <v>2145</v>
+      </c>
+      <c r="D615" t="n">
+        <v>2145</v>
+      </c>
+      <c r="E615" t="n">
+        <v>2140</v>
+      </c>
+      <c r="F615" t="n">
+        <v>54.7857</v>
+      </c>
+      <c r="G615" t="n">
+        <v>-272339.3275196998</v>
+      </c>
+      <c r="H615" t="n">
+        <v>0</v>
+      </c>
+      <c r="I615" t="inlineStr"/>
+      <c r="J615" t="inlineStr"/>
+      <c r="K615" t="inlineStr"/>
+      <c r="L615" t="n">
+        <v>1</v>
+      </c>
+      <c r="M615" t="inlineStr"/>
+    </row>
+    <row r="616">
+      <c r="A616" s="1" t="n">
+        <v>614</v>
+      </c>
+      <c r="B616" t="n">
+        <v>2138</v>
+      </c>
+      <c r="C616" t="n">
+        <v>2135</v>
+      </c>
+      <c r="D616" t="n">
+        <v>2138</v>
+      </c>
+      <c r="E616" t="n">
+        <v>2135</v>
+      </c>
+      <c r="F616" t="n">
+        <v>250</v>
+      </c>
+      <c r="G616" t="n">
+        <v>-272589.3275196998</v>
+      </c>
+      <c r="H616" t="n">
+        <v>0</v>
+      </c>
+      <c r="I616" t="inlineStr"/>
+      <c r="J616" t="inlineStr"/>
+      <c r="K616" t="inlineStr"/>
+      <c r="L616" t="n">
+        <v>1</v>
+      </c>
+      <c r="M616" t="inlineStr"/>
+    </row>
+    <row r="617">
+      <c r="A617" s="1" t="n">
+        <v>615</v>
+      </c>
+      <c r="B617" t="n">
+        <v>2137</v>
+      </c>
+      <c r="C617" t="n">
+        <v>2133</v>
+      </c>
+      <c r="D617" t="n">
+        <v>2137</v>
+      </c>
+      <c r="E617" t="n">
+        <v>2133</v>
+      </c>
+      <c r="F617" t="n">
+        <v>919.342</v>
+      </c>
+      <c r="G617" t="n">
+        <v>-273508.6695196998</v>
+      </c>
+      <c r="H617" t="n">
+        <v>0</v>
+      </c>
+      <c r="I617" t="inlineStr"/>
+      <c r="J617" t="inlineStr"/>
+      <c r="K617" t="inlineStr"/>
+      <c r="L617" t="n">
+        <v>1</v>
+      </c>
+      <c r="M617" t="inlineStr"/>
+    </row>
+    <row r="618">
+      <c r="A618" s="1" t="n">
+        <v>616</v>
+      </c>
+      <c r="B618" t="n">
+        <v>2131</v>
+      </c>
+      <c r="C618" t="n">
         <v>2130</v>
       </c>
-      <c r="J599" t="n">
+      <c r="D618" t="n">
+        <v>2131</v>
+      </c>
+      <c r="E618" t="n">
+        <v>2130</v>
+      </c>
+      <c r="F618" t="n">
+        <v>578.7424</v>
+      </c>
+      <c r="G618" t="n">
+        <v>-274087.4119196998</v>
+      </c>
+      <c r="H618" t="n">
+        <v>0</v>
+      </c>
+      <c r="I618" t="inlineStr"/>
+      <c r="J618" t="inlineStr"/>
+      <c r="K618" t="inlineStr"/>
+      <c r="L618" t="n">
+        <v>1</v>
+      </c>
+      <c r="M618" t="inlineStr"/>
+    </row>
+    <row r="619">
+      <c r="A619" s="1" t="n">
+        <v>617</v>
+      </c>
+      <c r="B619" t="n">
+        <v>2134</v>
+      </c>
+      <c r="C619" t="n">
+        <v>2132</v>
+      </c>
+      <c r="D619" t="n">
+        <v>2134</v>
+      </c>
+      <c r="E619" t="n">
+        <v>2132</v>
+      </c>
+      <c r="F619" t="n">
+        <v>362.8766</v>
+      </c>
+      <c r="G619" t="n">
+        <v>-273724.5353196998</v>
+      </c>
+      <c r="H619" t="n">
+        <v>0</v>
+      </c>
+      <c r="I619" t="inlineStr"/>
+      <c r="J619" t="inlineStr"/>
+      <c r="K619" t="inlineStr"/>
+      <c r="L619" t="n">
+        <v>1</v>
+      </c>
+      <c r="M619" t="inlineStr"/>
+    </row>
+    <row r="620">
+      <c r="A620" s="1" t="n">
+        <v>618</v>
+      </c>
+      <c r="B620" t="n">
+        <v>2133</v>
+      </c>
+      <c r="C620" t="n">
+        <v>2131</v>
+      </c>
+      <c r="D620" t="n">
+        <v>2133</v>
+      </c>
+      <c r="E620" t="n">
+        <v>2131</v>
+      </c>
+      <c r="F620" t="n">
+        <v>2770.4731</v>
+      </c>
+      <c r="G620" t="n">
+        <v>-276495.0084196998</v>
+      </c>
+      <c r="H620" t="n">
+        <v>0</v>
+      </c>
+      <c r="I620" t="inlineStr"/>
+      <c r="J620" t="inlineStr"/>
+      <c r="K620" t="inlineStr"/>
+      <c r="L620" t="n">
+        <v>1</v>
+      </c>
+      <c r="M620" t="inlineStr"/>
+    </row>
+    <row r="621">
+      <c r="A621" s="1" t="n">
+        <v>619</v>
+      </c>
+      <c r="B621" t="n">
+        <v>2132</v>
+      </c>
+      <c r="C621" t="n">
+        <v>2132</v>
+      </c>
+      <c r="D621" t="n">
+        <v>2132</v>
+      </c>
+      <c r="E621" t="n">
+        <v>2132</v>
+      </c>
+      <c r="F621" t="n">
+        <v>35</v>
+      </c>
+      <c r="G621" t="n">
+        <v>-276460.0084196998</v>
+      </c>
+      <c r="H621" t="n">
+        <v>1</v>
+      </c>
+      <c r="I621" t="n">
+        <v>2131</v>
+      </c>
+      <c r="J621" t="n">
+        <v>2131</v>
+      </c>
+      <c r="K621" t="inlineStr"/>
+      <c r="L621" t="n">
+        <v>1</v>
+      </c>
+      <c r="M621" t="inlineStr"/>
+    </row>
+    <row r="622">
+      <c r="A622" s="1" t="n">
+        <v>620</v>
+      </c>
+      <c r="B622" t="n">
+        <v>2132</v>
+      </c>
+      <c r="C622" t="n">
         <v>2139</v>
       </c>
-      <c r="K599" t="inlineStr">
+      <c r="D622" t="n">
+        <v>2139</v>
+      </c>
+      <c r="E622" t="n">
+        <v>2131</v>
+      </c>
+      <c r="F622" t="n">
+        <v>573.6497000000001</v>
+      </c>
+      <c r="G622" t="n">
+        <v>-275886.3587196998</v>
+      </c>
+      <c r="H622" t="n">
+        <v>1</v>
+      </c>
+      <c r="I622" t="n">
+        <v>2132</v>
+      </c>
+      <c r="J622" t="n">
+        <v>2131</v>
+      </c>
+      <c r="K622" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L599" t="n">
-        <v>1</v>
-      </c>
-      <c r="M599" t="inlineStr"/>
-    </row>
-    <row r="600">
-      <c r="A600" s="1" t="n">
-        <v>598</v>
-      </c>
-      <c r="B600" t="n">
-        <v>2148</v>
-      </c>
-      <c r="C600" t="n">
-        <v>2148</v>
-      </c>
-      <c r="D600" t="n">
-        <v>2148</v>
-      </c>
-      <c r="E600" t="n">
-        <v>2148</v>
-      </c>
-      <c r="F600" t="n">
-        <v>255.4131</v>
-      </c>
-      <c r="G600" t="n">
-        <v>-266970.0642196998</v>
-      </c>
-      <c r="H600" t="n">
-        <v>1</v>
-      </c>
-      <c r="I600" t="n">
-        <v>2139</v>
-      </c>
-      <c r="J600" t="n">
-        <v>2139</v>
-      </c>
-      <c r="K600" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L600" t="n">
-        <v>1</v>
-      </c>
-      <c r="M600" t="inlineStr"/>
-    </row>
-    <row r="601">
-      <c r="A601" s="1" t="n">
-        <v>599</v>
-      </c>
-      <c r="B601" t="n">
-        <v>2138</v>
-      </c>
-      <c r="C601" t="n">
-        <v>2135</v>
-      </c>
-      <c r="D601" t="n">
-        <v>2144</v>
-      </c>
-      <c r="E601" t="n">
-        <v>2135</v>
-      </c>
-      <c r="F601" t="n">
-        <v>4488.8299</v>
-      </c>
-      <c r="G601" t="n">
-        <v>-271458.8941196998</v>
-      </c>
-      <c r="H601" t="n">
-        <v>0</v>
-      </c>
-      <c r="I601" t="inlineStr"/>
-      <c r="J601" t="n">
-        <v>2139</v>
-      </c>
-      <c r="K601" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L601" t="n">
-        <v>1</v>
-      </c>
-      <c r="M601" t="inlineStr"/>
-    </row>
-    <row r="602">
-      <c r="A602" s="1" t="n">
-        <v>600</v>
-      </c>
-      <c r="B602" t="n">
-        <v>2140</v>
-      </c>
-      <c r="C602" t="n">
-        <v>2141</v>
-      </c>
-      <c r="D602" t="n">
-        <v>2141</v>
-      </c>
-      <c r="E602" t="n">
-        <v>2140</v>
-      </c>
-      <c r="F602" t="n">
-        <v>192.4586</v>
-      </c>
-      <c r="G602" t="n">
-        <v>-271266.4355196998</v>
-      </c>
-      <c r="H602" t="n">
-        <v>0</v>
-      </c>
-      <c r="I602" t="inlineStr"/>
-      <c r="J602" t="n">
-        <v>2139</v>
-      </c>
-      <c r="K602" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L602" t="n">
-        <v>1</v>
-      </c>
-      <c r="M602" t="inlineStr"/>
-    </row>
-    <row r="603">
-      <c r="A603" s="1" t="n">
-        <v>601</v>
-      </c>
-      <c r="B603" t="n">
-        <v>2135</v>
-      </c>
-      <c r="C603" t="n">
-        <v>2141</v>
-      </c>
-      <c r="D603" t="n">
-        <v>2141</v>
-      </c>
-      <c r="E603" t="n">
-        <v>2135</v>
-      </c>
-      <c r="F603" t="n">
-        <v>249.0797</v>
-      </c>
-      <c r="G603" t="n">
-        <v>-271266.4355196998</v>
-      </c>
-      <c r="H603" t="n">
-        <v>0</v>
-      </c>
-      <c r="I603" t="inlineStr"/>
-      <c r="J603" t="n">
-        <v>2139</v>
-      </c>
-      <c r="K603" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L603" t="n">
-        <v>1</v>
-      </c>
-      <c r="M603" t="inlineStr"/>
-    </row>
-    <row r="604">
-      <c r="A604" s="1" t="n">
-        <v>602</v>
-      </c>
-      <c r="B604" t="n">
-        <v>2136</v>
-      </c>
-      <c r="C604" t="n">
-        <v>2134</v>
-      </c>
-      <c r="D604" t="n">
-        <v>2136</v>
-      </c>
-      <c r="E604" t="n">
-        <v>2134</v>
-      </c>
-      <c r="F604" t="n">
-        <v>581.7754</v>
-      </c>
-      <c r="G604" t="n">
-        <v>-271848.2109196998</v>
-      </c>
-      <c r="H604" t="n">
-        <v>0</v>
-      </c>
-      <c r="I604" t="inlineStr"/>
-      <c r="J604" t="n">
-        <v>2139</v>
-      </c>
-      <c r="K604" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L604" t="n">
-        <v>1</v>
-      </c>
-      <c r="M604" t="inlineStr"/>
-    </row>
-    <row r="605">
-      <c r="A605" s="1" t="n">
-        <v>603</v>
-      </c>
-      <c r="B605" t="n">
-        <v>2140</v>
-      </c>
-      <c r="C605" t="n">
-        <v>2140</v>
-      </c>
-      <c r="D605" t="n">
-        <v>2140</v>
-      </c>
-      <c r="E605" t="n">
-        <v>2140</v>
-      </c>
-      <c r="F605" t="n">
-        <v>78.955</v>
-      </c>
-      <c r="G605" t="n">
-        <v>-271769.2559196998</v>
-      </c>
-      <c r="H605" t="n">
-        <v>0</v>
-      </c>
-      <c r="I605" t="inlineStr"/>
-      <c r="J605" t="n">
-        <v>2139</v>
-      </c>
-      <c r="K605" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L605" t="n">
-        <v>1</v>
-      </c>
-      <c r="M605" t="inlineStr"/>
-    </row>
-    <row r="606">
-      <c r="A606" s="1" t="n">
-        <v>604</v>
-      </c>
-      <c r="B606" t="n">
-        <v>2141</v>
-      </c>
-      <c r="C606" t="n">
-        <v>2147</v>
-      </c>
-      <c r="D606" t="n">
-        <v>2147</v>
-      </c>
-      <c r="E606" t="n">
-        <v>2141</v>
-      </c>
-      <c r="F606" t="n">
-        <v>281.7315</v>
-      </c>
-      <c r="G606" t="n">
-        <v>-271487.5244196998</v>
-      </c>
-      <c r="H606" t="n">
-        <v>0</v>
-      </c>
-      <c r="I606" t="inlineStr"/>
-      <c r="J606" t="n">
-        <v>2139</v>
-      </c>
-      <c r="K606" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L606" t="n">
-        <v>1</v>
-      </c>
-      <c r="M606" t="inlineStr"/>
-    </row>
-    <row r="607">
-      <c r="A607" s="1" t="n">
-        <v>605</v>
-      </c>
-      <c r="B607" t="n">
-        <v>2148</v>
-      </c>
-      <c r="C607" t="n">
-        <v>2155</v>
-      </c>
-      <c r="D607" t="n">
-        <v>2155</v>
-      </c>
-      <c r="E607" t="n">
-        <v>2148</v>
-      </c>
-      <c r="F607" t="n">
-        <v>209.1506</v>
-      </c>
-      <c r="G607" t="n">
-        <v>-271278.3738196998</v>
-      </c>
-      <c r="H607" t="n">
-        <v>0</v>
-      </c>
-      <c r="I607" t="inlineStr"/>
-      <c r="J607" t="n">
-        <v>2139</v>
-      </c>
-      <c r="K607" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L607" t="n">
-        <v>1</v>
-      </c>
-      <c r="M607" t="inlineStr"/>
-    </row>
-    <row r="608">
-      <c r="A608" s="1" t="n">
-        <v>606</v>
-      </c>
-      <c r="B608" t="n">
-        <v>2154</v>
-      </c>
-      <c r="C608" t="n">
-        <v>2155</v>
-      </c>
-      <c r="D608" t="n">
-        <v>2155</v>
-      </c>
-      <c r="E608" t="n">
-        <v>2154</v>
-      </c>
-      <c r="F608" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G608" t="n">
-        <v>-271278.3738196998</v>
-      </c>
-      <c r="H608" t="n">
-        <v>0</v>
-      </c>
-      <c r="I608" t="inlineStr"/>
-      <c r="J608" t="n">
-        <v>2139</v>
-      </c>
-      <c r="K608" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L608" t="n">
-        <v>1</v>
-      </c>
-      <c r="M608" t="inlineStr"/>
-    </row>
-    <row r="609">
-      <c r="A609" s="1" t="n">
-        <v>607</v>
-      </c>
-      <c r="B609" t="n">
-        <v>2150</v>
-      </c>
-      <c r="C609" t="n">
-        <v>2150</v>
-      </c>
-      <c r="D609" t="n">
-        <v>2150</v>
-      </c>
-      <c r="E609" t="n">
-        <v>2150</v>
-      </c>
-      <c r="F609" t="n">
-        <v>251.0059</v>
-      </c>
-      <c r="G609" t="n">
-        <v>-271529.3797196998</v>
-      </c>
-      <c r="H609" t="n">
-        <v>0</v>
-      </c>
-      <c r="I609" t="inlineStr"/>
-      <c r="J609" t="n">
-        <v>2139</v>
-      </c>
-      <c r="K609" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L609" t="n">
-        <v>1</v>
-      </c>
-      <c r="M609" t="inlineStr"/>
-    </row>
-    <row r="610">
-      <c r="A610" s="1" t="n">
-        <v>608</v>
-      </c>
-      <c r="B610" t="n">
-        <v>2150</v>
-      </c>
-      <c r="C610" t="n">
-        <v>2150</v>
-      </c>
-      <c r="D610" t="n">
-        <v>2150</v>
-      </c>
-      <c r="E610" t="n">
-        <v>2150</v>
-      </c>
-      <c r="F610" t="n">
-        <v>144.5313</v>
-      </c>
-      <c r="G610" t="n">
-        <v>-271529.3797196998</v>
-      </c>
-      <c r="H610" t="n">
-        <v>0</v>
-      </c>
-      <c r="I610" t="inlineStr"/>
-      <c r="J610" t="n">
-        <v>2139</v>
-      </c>
-      <c r="K610" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L610" t="n">
-        <v>1</v>
-      </c>
-      <c r="M610" t="inlineStr"/>
-    </row>
-    <row r="611">
-      <c r="A611" s="1" t="n">
-        <v>609</v>
-      </c>
-      <c r="B611" t="n">
-        <v>2144</v>
-      </c>
-      <c r="C611" t="n">
-        <v>2144</v>
-      </c>
-      <c r="D611" t="n">
-        <v>2144</v>
-      </c>
-      <c r="E611" t="n">
-        <v>2144</v>
-      </c>
-      <c r="F611" t="n">
-        <v>100</v>
-      </c>
-      <c r="G611" t="n">
-        <v>-271629.3797196998</v>
-      </c>
-      <c r="H611" t="n">
-        <v>0</v>
-      </c>
-      <c r="I611" t="inlineStr"/>
-      <c r="J611" t="n">
-        <v>2139</v>
-      </c>
-      <c r="K611" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L611" t="n">
-        <v>1</v>
-      </c>
-      <c r="M611" t="inlineStr"/>
-    </row>
-    <row r="612">
-      <c r="A612" s="1" t="n">
-        <v>610</v>
-      </c>
-      <c r="B612" t="n">
-        <v>2144</v>
-      </c>
-      <c r="C612" t="n">
-        <v>2144</v>
-      </c>
-      <c r="D612" t="n">
-        <v>2144</v>
-      </c>
-      <c r="E612" t="n">
-        <v>2144</v>
-      </c>
-      <c r="F612" t="n">
-        <v>100</v>
-      </c>
-      <c r="G612" t="n">
-        <v>-271629.3797196998</v>
-      </c>
-      <c r="H612" t="n">
-        <v>0</v>
-      </c>
-      <c r="I612" t="inlineStr"/>
-      <c r="J612" t="n">
-        <v>2139</v>
-      </c>
-      <c r="K612" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L612" t="n">
-        <v>1</v>
-      </c>
-      <c r="M612" t="inlineStr"/>
-    </row>
-    <row r="613">
-      <c r="A613" s="1" t="n">
-        <v>611</v>
-      </c>
-      <c r="B613" t="n">
-        <v>2143</v>
-      </c>
-      <c r="C613" t="n">
-        <v>2143</v>
-      </c>
-      <c r="D613" t="n">
-        <v>2143</v>
-      </c>
-      <c r="E613" t="n">
-        <v>2143</v>
-      </c>
-      <c r="F613" t="n">
-        <v>2.8167</v>
-      </c>
-      <c r="G613" t="n">
-        <v>-271632.1964196998</v>
-      </c>
-      <c r="H613" t="n">
-        <v>0</v>
-      </c>
-      <c r="I613" t="inlineStr"/>
-      <c r="J613" t="n">
-        <v>2139</v>
-      </c>
-      <c r="K613" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L613" t="n">
-        <v>1</v>
-      </c>
-      <c r="M613" t="inlineStr"/>
-    </row>
-    <row r="614">
-      <c r="A614" s="1" t="n">
-        <v>612</v>
-      </c>
-      <c r="B614" t="n">
-        <v>2140</v>
-      </c>
-      <c r="C614" t="n">
-        <v>2142</v>
-      </c>
-      <c r="D614" t="n">
-        <v>2142</v>
-      </c>
-      <c r="E614" t="n">
-        <v>2140</v>
-      </c>
-      <c r="F614" t="n">
-        <v>761.9168</v>
-      </c>
-      <c r="G614" t="n">
-        <v>-272394.1132196998</v>
-      </c>
-      <c r="H614" t="n">
-        <v>0</v>
-      </c>
-      <c r="I614" t="inlineStr"/>
-      <c r="J614" t="n">
-        <v>2139</v>
-      </c>
-      <c r="K614" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L614" t="n">
-        <v>1</v>
-      </c>
-      <c r="M614" t="inlineStr"/>
-    </row>
-    <row r="615">
-      <c r="A615" s="1" t="n">
-        <v>613</v>
-      </c>
-      <c r="B615" t="n">
-        <v>2140</v>
-      </c>
-      <c r="C615" t="n">
-        <v>2145</v>
-      </c>
-      <c r="D615" t="n">
-        <v>2145</v>
-      </c>
-      <c r="E615" t="n">
-        <v>2140</v>
-      </c>
-      <c r="F615" t="n">
-        <v>54.7857</v>
-      </c>
-      <c r="G615" t="n">
-        <v>-272339.3275196998</v>
-      </c>
-      <c r="H615" t="n">
-        <v>0</v>
-      </c>
-      <c r="I615" t="inlineStr"/>
-      <c r="J615" t="n">
-        <v>2139</v>
-      </c>
-      <c r="K615" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L615" t="n">
-        <v>1</v>
-      </c>
-      <c r="M615" t="inlineStr"/>
-    </row>
-    <row r="616">
-      <c r="A616" s="1" t="n">
-        <v>614</v>
-      </c>
-      <c r="B616" t="n">
-        <v>2138</v>
-      </c>
-      <c r="C616" t="n">
-        <v>2135</v>
-      </c>
-      <c r="D616" t="n">
-        <v>2138</v>
-      </c>
-      <c r="E616" t="n">
-        <v>2135</v>
-      </c>
-      <c r="F616" t="n">
-        <v>250</v>
-      </c>
-      <c r="G616" t="n">
-        <v>-272589.3275196998</v>
-      </c>
-      <c r="H616" t="n">
-        <v>0</v>
-      </c>
-      <c r="I616" t="inlineStr"/>
-      <c r="J616" t="n">
-        <v>2139</v>
-      </c>
-      <c r="K616" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L616" t="n">
-        <v>1</v>
-      </c>
-      <c r="M616" t="inlineStr"/>
-    </row>
-    <row r="617">
-      <c r="A617" s="1" t="n">
-        <v>615</v>
-      </c>
-      <c r="B617" t="n">
-        <v>2137</v>
-      </c>
-      <c r="C617" t="n">
-        <v>2133</v>
-      </c>
-      <c r="D617" t="n">
-        <v>2137</v>
-      </c>
-      <c r="E617" t="n">
-        <v>2133</v>
-      </c>
-      <c r="F617" t="n">
-        <v>919.342</v>
-      </c>
-      <c r="G617" t="n">
-        <v>-273508.6695196998</v>
-      </c>
-      <c r="H617" t="n">
-        <v>0</v>
-      </c>
-      <c r="I617" t="inlineStr"/>
-      <c r="J617" t="n">
-        <v>2139</v>
-      </c>
-      <c r="K617" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L617" t="n">
-        <v>1</v>
-      </c>
-      <c r="M617" t="inlineStr"/>
-    </row>
-    <row r="618">
-      <c r="A618" s="1" t="n">
-        <v>616</v>
-      </c>
-      <c r="B618" t="n">
-        <v>2131</v>
-      </c>
-      <c r="C618" t="n">
-        <v>2130</v>
-      </c>
-      <c r="D618" t="n">
-        <v>2131</v>
-      </c>
-      <c r="E618" t="n">
-        <v>2130</v>
-      </c>
-      <c r="F618" t="n">
-        <v>578.7424</v>
-      </c>
-      <c r="G618" t="n">
-        <v>-274087.4119196998</v>
-      </c>
-      <c r="H618" t="n">
-        <v>0</v>
-      </c>
-      <c r="I618" t="inlineStr"/>
-      <c r="J618" t="n">
-        <v>2139</v>
-      </c>
-      <c r="K618" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L618" t="n">
-        <v>1</v>
-      </c>
-      <c r="M618" t="inlineStr"/>
-    </row>
-    <row r="619">
-      <c r="A619" s="1" t="n">
-        <v>617</v>
-      </c>
-      <c r="B619" t="n">
-        <v>2134</v>
-      </c>
-      <c r="C619" t="n">
-        <v>2132</v>
-      </c>
-      <c r="D619" t="n">
-        <v>2134</v>
-      </c>
-      <c r="E619" t="n">
-        <v>2132</v>
-      </c>
-      <c r="F619" t="n">
-        <v>362.8766</v>
-      </c>
-      <c r="G619" t="n">
-        <v>-273724.5353196998</v>
-      </c>
-      <c r="H619" t="n">
-        <v>0</v>
-      </c>
-      <c r="I619" t="inlineStr"/>
-      <c r="J619" t="n">
-        <v>2139</v>
-      </c>
-      <c r="K619" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L619" t="n">
-        <v>1</v>
-      </c>
-      <c r="M619" t="inlineStr"/>
-    </row>
-    <row r="620">
-      <c r="A620" s="1" t="n">
-        <v>618</v>
-      </c>
-      <c r="B620" t="n">
-        <v>2133</v>
-      </c>
-      <c r="C620" t="n">
-        <v>2131</v>
-      </c>
-      <c r="D620" t="n">
-        <v>2133</v>
-      </c>
-      <c r="E620" t="n">
-        <v>2131</v>
-      </c>
-      <c r="F620" t="n">
-        <v>2770.4731</v>
-      </c>
-      <c r="G620" t="n">
-        <v>-276495.0084196998</v>
-      </c>
-      <c r="H620" t="n">
-        <v>0</v>
-      </c>
-      <c r="I620" t="inlineStr"/>
-      <c r="J620" t="n">
-        <v>2139</v>
-      </c>
-      <c r="K620" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L620" t="n">
-        <v>1</v>
-      </c>
-      <c r="M620" t="inlineStr"/>
-    </row>
-    <row r="621">
-      <c r="A621" s="1" t="n">
-        <v>619</v>
-      </c>
-      <c r="B621" t="n">
-        <v>2132</v>
-      </c>
-      <c r="C621" t="n">
-        <v>2132</v>
-      </c>
-      <c r="D621" t="n">
-        <v>2132</v>
-      </c>
-      <c r="E621" t="n">
-        <v>2132</v>
-      </c>
-      <c r="F621" t="n">
-        <v>35</v>
-      </c>
-      <c r="G621" t="n">
-        <v>-276460.0084196998</v>
-      </c>
-      <c r="H621" t="n">
-        <v>0</v>
-      </c>
-      <c r="I621" t="inlineStr"/>
-      <c r="J621" t="n">
-        <v>2139</v>
-      </c>
-      <c r="K621" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L621" t="n">
-        <v>1</v>
-      </c>
-      <c r="M621" t="inlineStr"/>
-    </row>
-    <row r="622">
-      <c r="A622" s="1" t="n">
-        <v>620</v>
-      </c>
-      <c r="B622" t="n">
-        <v>2132</v>
-      </c>
-      <c r="C622" t="n">
-        <v>2139</v>
-      </c>
-      <c r="D622" t="n">
-        <v>2139</v>
-      </c>
-      <c r="E622" t="n">
-        <v>2131</v>
-      </c>
-      <c r="F622" t="n">
-        <v>573.6497000000001</v>
-      </c>
-      <c r="G622" t="n">
-        <v>-275886.3587196998</v>
-      </c>
-      <c r="H622" t="n">
-        <v>0</v>
-      </c>
-      <c r="I622" t="inlineStr"/>
-      <c r="J622" t="n">
-        <v>2139</v>
-      </c>
-      <c r="K622" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -21096,11 +20956,13 @@
         <v>-275978.3587196998</v>
       </c>
       <c r="H623" t="n">
-        <v>0</v>
-      </c>
-      <c r="I623" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I623" t="n">
+        <v>2139</v>
+      </c>
       <c r="J623" t="n">
-        <v>2139</v>
+        <v>2131</v>
       </c>
       <c r="K623" t="inlineStr">
         <is>
@@ -21139,7 +21001,7 @@
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="n">
-        <v>2139</v>
+        <v>2131</v>
       </c>
       <c r="K624" t="inlineStr">
         <is>
@@ -21178,7 +21040,7 @@
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="n">
-        <v>2139</v>
+        <v>2131</v>
       </c>
       <c r="K625" t="inlineStr">
         <is>
@@ -21217,7 +21079,7 @@
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="n">
-        <v>2139</v>
+        <v>2131</v>
       </c>
       <c r="K626" t="inlineStr">
         <is>
@@ -21252,11 +21114,13 @@
         <v>-271446.0603196998</v>
       </c>
       <c r="H627" t="n">
-        <v>0</v>
-      </c>
-      <c r="I627" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I627" t="n">
+        <v>2135</v>
+      </c>
       <c r="J627" t="n">
-        <v>2139</v>
+        <v>2131</v>
       </c>
       <c r="K627" t="inlineStr">
         <is>
@@ -21291,11 +21155,13 @@
         <v>-271446.0603196998</v>
       </c>
       <c r="H628" t="n">
-        <v>0</v>
-      </c>
-      <c r="I628" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I628" t="n">
+        <v>2135</v>
+      </c>
       <c r="J628" t="n">
-        <v>2139</v>
+        <v>2131</v>
       </c>
       <c r="K628" t="inlineStr">
         <is>
@@ -21334,7 +21200,7 @@
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="n">
-        <v>2139</v>
+        <v>2131</v>
       </c>
       <c r="K629" t="inlineStr">
         <is>
@@ -21369,11 +21235,13 @@
         <v>-271803.3021196998</v>
       </c>
       <c r="H630" t="n">
-        <v>0</v>
-      </c>
-      <c r="I630" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I630" t="n">
+        <v>2136</v>
+      </c>
       <c r="J630" t="n">
-        <v>2139</v>
+        <v>2131</v>
       </c>
       <c r="K630" t="inlineStr">
         <is>
@@ -21408,11 +21276,13 @@
         <v>-271803.3021196998</v>
       </c>
       <c r="H631" t="n">
-        <v>0</v>
-      </c>
-      <c r="I631" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I631" t="n">
+        <v>2124</v>
+      </c>
       <c r="J631" t="n">
-        <v>2139</v>
+        <v>2131</v>
       </c>
       <c r="K631" t="inlineStr">
         <is>
@@ -21447,11 +21317,13 @@
         <v>-267603.1539196998</v>
       </c>
       <c r="H632" t="n">
-        <v>0</v>
-      </c>
-      <c r="I632" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I632" t="n">
+        <v>2124</v>
+      </c>
       <c r="J632" t="n">
-        <v>2139</v>
+        <v>2131</v>
       </c>
       <c r="K632" t="inlineStr">
         <is>
@@ -21486,11 +21358,13 @@
         <v>-265179.2363196998</v>
       </c>
       <c r="H633" t="n">
-        <v>0</v>
-      </c>
-      <c r="I633" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I633" t="n">
+        <v>2128</v>
+      </c>
       <c r="J633" t="n">
-        <v>2139</v>
+        <v>2131</v>
       </c>
       <c r="K633" t="inlineStr">
         <is>
@@ -21525,11 +21399,13 @@
         <v>-267770.8513196998</v>
       </c>
       <c r="H634" t="n">
-        <v>0</v>
-      </c>
-      <c r="I634" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I634" t="n">
+        <v>2132</v>
+      </c>
       <c r="J634" t="n">
-        <v>2139</v>
+        <v>2131</v>
       </c>
       <c r="K634" t="inlineStr">
         <is>
@@ -21564,11 +21440,13 @@
         <v>-267770.8513196998</v>
       </c>
       <c r="H635" t="n">
-        <v>0</v>
-      </c>
-      <c r="I635" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I635" t="n">
+        <v>2130</v>
+      </c>
       <c r="J635" t="n">
-        <v>2139</v>
+        <v>2131</v>
       </c>
       <c r="K635" t="inlineStr">
         <is>
@@ -21603,11 +21481,13 @@
         <v>-266151.2113196998</v>
       </c>
       <c r="H636" t="n">
-        <v>0</v>
-      </c>
-      <c r="I636" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I636" t="n">
+        <v>2130</v>
+      </c>
       <c r="J636" t="n">
-        <v>2139</v>
+        <v>2131</v>
       </c>
       <c r="K636" t="inlineStr">
         <is>
@@ -21642,11 +21522,13 @@
         <v>-265728.0519196998</v>
       </c>
       <c r="H637" t="n">
-        <v>0</v>
-      </c>
-      <c r="I637" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I637" t="n">
+        <v>2143</v>
+      </c>
       <c r="J637" t="n">
-        <v>2139</v>
+        <v>2131</v>
       </c>
       <c r="K637" t="inlineStr">
         <is>
@@ -21681,11 +21563,13 @@
         <v>-265728.0519196998</v>
       </c>
       <c r="H638" t="n">
-        <v>0</v>
-      </c>
-      <c r="I638" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I638" t="n">
+        <v>2154</v>
+      </c>
       <c r="J638" t="n">
-        <v>2139</v>
+        <v>2131</v>
       </c>
       <c r="K638" t="inlineStr">
         <is>
@@ -21720,11 +21604,13 @@
         <v>-265946.6744196998</v>
       </c>
       <c r="H639" t="n">
-        <v>0</v>
-      </c>
-      <c r="I639" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I639" t="n">
+        <v>2154</v>
+      </c>
       <c r="J639" t="n">
-        <v>2139</v>
+        <v>2131</v>
       </c>
       <c r="K639" t="inlineStr">
         <is>
@@ -21759,11 +21645,13 @@
         <v>-264854.0772196997</v>
       </c>
       <c r="H640" t="n">
-        <v>0</v>
-      </c>
-      <c r="I640" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I640" t="n">
+        <v>2148</v>
+      </c>
       <c r="J640" t="n">
-        <v>2139</v>
+        <v>2131</v>
       </c>
       <c r="K640" t="inlineStr">
         <is>
@@ -21798,11 +21686,13 @@
         <v>-264854.0772196997</v>
       </c>
       <c r="H641" t="n">
-        <v>0</v>
-      </c>
-      <c r="I641" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I641" t="n">
+        <v>2153</v>
+      </c>
       <c r="J641" t="n">
-        <v>2139</v>
+        <v>2131</v>
       </c>
       <c r="K641" t="inlineStr">
         <is>
@@ -21837,11 +21727,13 @@
         <v>-264921.8505196997</v>
       </c>
       <c r="H642" t="n">
-        <v>0</v>
-      </c>
-      <c r="I642" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I642" t="n">
+        <v>2153</v>
+      </c>
       <c r="J642" t="n">
-        <v>2139</v>
+        <v>2131</v>
       </c>
       <c r="K642" t="inlineStr">
         <is>
@@ -21876,11 +21768,13 @@
         <v>-266059.6777196997</v>
       </c>
       <c r="H643" t="n">
-        <v>0</v>
-      </c>
-      <c r="I643" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I643" t="n">
+        <v>2151</v>
+      </c>
       <c r="J643" t="n">
-        <v>2139</v>
+        <v>2131</v>
       </c>
       <c r="K643" t="inlineStr">
         <is>
@@ -21915,11 +21809,13 @@
         <v>-266050.3287196998</v>
       </c>
       <c r="H644" t="n">
-        <v>0</v>
-      </c>
-      <c r="I644" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I644" t="n">
+        <v>2138</v>
+      </c>
       <c r="J644" t="n">
-        <v>2139</v>
+        <v>2131</v>
       </c>
       <c r="K644" t="inlineStr">
         <is>
@@ -21954,11 +21850,13 @@
         <v>-263015.5043196998</v>
       </c>
       <c r="H645" t="n">
-        <v>0</v>
-      </c>
-      <c r="I645" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I645" t="n">
+        <v>2141</v>
+      </c>
       <c r="J645" t="n">
-        <v>2139</v>
+        <v>2131</v>
       </c>
       <c r="K645" t="inlineStr">
         <is>
@@ -21993,11 +21891,13 @@
         <v>-259693.6118196998</v>
       </c>
       <c r="H646" t="n">
-        <v>0</v>
-      </c>
-      <c r="I646" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I646" t="n">
+        <v>2149</v>
+      </c>
       <c r="J646" t="n">
-        <v>2139</v>
+        <v>2131</v>
       </c>
       <c r="K646" t="inlineStr">
         <is>
@@ -22036,7 +21936,7 @@
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="n">
-        <v>2139</v>
+        <v>2131</v>
       </c>
       <c r="K647" t="inlineStr">
         <is>
@@ -22075,7 +21975,7 @@
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="n">
-        <v>2139</v>
+        <v>2131</v>
       </c>
       <c r="K648" t="inlineStr">
         <is>
@@ -22114,7 +22014,7 @@
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="n">
-        <v>2139</v>
+        <v>2131</v>
       </c>
       <c r="K649" t="inlineStr">
         <is>
@@ -22153,7 +22053,7 @@
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="n">
-        <v>2139</v>
+        <v>2131</v>
       </c>
       <c r="K650" t="inlineStr">
         <is>
@@ -22192,7 +22092,7 @@
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="n">
-        <v>2139</v>
+        <v>2131</v>
       </c>
       <c r="K651" t="inlineStr">
         <is>
@@ -22231,7 +22131,7 @@
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="n">
-        <v>2139</v>
+        <v>2131</v>
       </c>
       <c r="K652" t="inlineStr">
         <is>
@@ -22270,7 +22170,7 @@
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="n">
-        <v>2139</v>
+        <v>2131</v>
       </c>
       <c r="K653" t="inlineStr">
         <is>
@@ -22309,7 +22209,7 @@
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="n">
-        <v>2139</v>
+        <v>2131</v>
       </c>
       <c r="K654" t="inlineStr">
         <is>
@@ -22348,7 +22248,7 @@
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="n">
-        <v>2139</v>
+        <v>2131</v>
       </c>
       <c r="K655" t="inlineStr">
         <is>
@@ -22387,7 +22287,7 @@
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="n">
-        <v>2139</v>
+        <v>2131</v>
       </c>
       <c r="K656" t="inlineStr">
         <is>
@@ -22426,7 +22326,7 @@
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="n">
-        <v>2139</v>
+        <v>2131</v>
       </c>
       <c r="K657" t="inlineStr">
         <is>
@@ -22465,7 +22365,7 @@
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="n">
-        <v>2139</v>
+        <v>2131</v>
       </c>
       <c r="K658" t="inlineStr">
         <is>
@@ -22504,7 +22404,7 @@
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="n">
-        <v>2139</v>
+        <v>2131</v>
       </c>
       <c r="K659" t="inlineStr">
         <is>
@@ -22543,7 +22443,7 @@
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="n">
-        <v>2139</v>
+        <v>2131</v>
       </c>
       <c r="K660" t="inlineStr">
         <is>
@@ -22578,19 +22478,19 @@
         <v>-256220.9261719198</v>
       </c>
       <c r="H661" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="n">
-        <v>2139</v>
+        <v>2131</v>
       </c>
       <c r="K661" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L661" t="n">
-        <v>1.008557737260402</v>
+        <v>1</v>
       </c>
       <c r="M661" t="inlineStr"/>
     </row>
@@ -22617,11 +22517,17 @@
         <v>-254337.0997719198</v>
       </c>
       <c r="H662" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
-      <c r="J662" t="inlineStr"/>
-      <c r="K662" t="inlineStr"/>
+      <c r="J662" t="n">
+        <v>2131</v>
+      </c>
+      <c r="K662" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -22650,11 +22556,17 @@
         <v>-254489.3932719198</v>
       </c>
       <c r="H663" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
-      <c r="J663" t="inlineStr"/>
-      <c r="K663" t="inlineStr"/>
+      <c r="J663" t="n">
+        <v>2131</v>
+      </c>
+      <c r="K663" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -22683,11 +22595,17 @@
         <v>-253147.3603719198</v>
       </c>
       <c r="H664" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I664" t="inlineStr"/>
-      <c r="J664" t="inlineStr"/>
-      <c r="K664" t="inlineStr"/>
+      <c r="J664" t="n">
+        <v>2131</v>
+      </c>
+      <c r="K664" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -22719,8 +22637,14 @@
         <v>0</v>
       </c>
       <c r="I665" t="inlineStr"/>
-      <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr"/>
+      <c r="J665" t="n">
+        <v>2131</v>
+      </c>
+      <c r="K665" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -22752,8 +22676,14 @@
         <v>0</v>
       </c>
       <c r="I666" t="inlineStr"/>
-      <c r="J666" t="inlineStr"/>
-      <c r="K666" t="inlineStr"/>
+      <c r="J666" t="n">
+        <v>2131</v>
+      </c>
+      <c r="K666" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -22785,8 +22715,14 @@
         <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
-      <c r="J667" t="inlineStr"/>
-      <c r="K667" t="inlineStr"/>
+      <c r="J667" t="n">
+        <v>2131</v>
+      </c>
+      <c r="K667" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -22818,8 +22754,14 @@
         <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
-      <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr"/>
+      <c r="J668" t="n">
+        <v>2131</v>
+      </c>
+      <c r="K668" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -22851,8 +22793,14 @@
         <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
-      <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr"/>
+      <c r="J669" t="n">
+        <v>2131</v>
+      </c>
+      <c r="K669" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -22884,8 +22832,14 @@
         <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
-      <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr"/>
+      <c r="J670" t="n">
+        <v>2131</v>
+      </c>
+      <c r="K670" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -22917,8 +22871,14 @@
         <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
-      <c r="J671" t="inlineStr"/>
-      <c r="K671" t="inlineStr"/>
+      <c r="J671" t="n">
+        <v>2131</v>
+      </c>
+      <c r="K671" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -22950,8 +22910,14 @@
         <v>0</v>
       </c>
       <c r="I672" t="inlineStr"/>
-      <c r="J672" t="inlineStr"/>
-      <c r="K672" t="inlineStr"/>
+      <c r="J672" t="n">
+        <v>2131</v>
+      </c>
+      <c r="K672" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -22980,11 +22946,17 @@
         <v>-252509.6498719198</v>
       </c>
       <c r="H673" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I673" t="inlineStr"/>
-      <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr"/>
+      <c r="J673" t="n">
+        <v>2131</v>
+      </c>
+      <c r="K673" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -23013,11 +22985,17 @@
         <v>-252547.7158719198</v>
       </c>
       <c r="H674" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
-      <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr"/>
+      <c r="J674" t="n">
+        <v>2131</v>
+      </c>
+      <c r="K674" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -23046,11 +23024,17 @@
         <v>-252544.8376719198</v>
       </c>
       <c r="H675" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I675" t="inlineStr"/>
-      <c r="J675" t="inlineStr"/>
-      <c r="K675" t="inlineStr"/>
+      <c r="J675" t="n">
+        <v>2131</v>
+      </c>
+      <c r="K675" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -23079,11 +23063,17 @@
         <v>-249716.8376719198</v>
       </c>
       <c r="H676" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
-      <c r="J676" t="inlineStr"/>
-      <c r="K676" t="inlineStr"/>
+      <c r="J676" t="n">
+        <v>2131</v>
+      </c>
+      <c r="K676" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L676" t="n">
         <v>1</v>
       </c>
